--- a/data/input/actualizacion_protocolo/incidencia14.xlsx
+++ b/data/input/actualizacion_protocolo/incidencia14.xlsx
@@ -377,1194 +377,1194 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>44510</v>
+        <v>44524</v>
       </c>
       <c r="B2">
-        <v>51.97534883455275</v>
+        <v>122.2277434131241</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>44511</v>
+        <v>44525</v>
       </c>
       <c r="B3">
-        <v>57.11576795005797</v>
+        <v>125.083531810627</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>44512</v>
+        <v>44526</v>
       </c>
       <c r="B4">
-        <v>63.39850242456435</v>
+        <v>125.6546894901275</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>44513</v>
+        <v>44527</v>
       </c>
       <c r="B5">
-        <v>66.25429082206725</v>
+        <v>141.0759468366432</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>44514</v>
+        <v>44528</v>
       </c>
       <c r="B6">
-        <v>69.11007921957014</v>
+        <v>153.6414157856559</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>44515</v>
+        <v>44529</v>
       </c>
       <c r="B7">
-        <v>70.82355225807189</v>
+        <v>155.3548888241577</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>44516</v>
+        <v>44530</v>
       </c>
       <c r="B8">
-        <v>76.53512905307768</v>
+        <v>158.2106772216606</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>44517</v>
+        <v>44531</v>
       </c>
       <c r="B9">
-        <v>82.81786352758405</v>
+        <v>164.4934116961669</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>44518</v>
+        <v>44532</v>
       </c>
       <c r="B10">
-        <v>91.95638639959334</v>
+        <v>173.0607768886757</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
-        <v>44519</v>
+        <v>44533</v>
       </c>
       <c r="B11">
-        <v>95.95449015609739</v>
+        <v>180.4858267221832</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
-        <v>44520</v>
+        <v>44534</v>
       </c>
       <c r="B12">
-        <v>91.95638639959334</v>
+        <v>186.7685611966896</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
-        <v>44521</v>
+        <v>44535</v>
       </c>
       <c r="B13">
-        <v>101.0949092716026</v>
+        <v>189.0531919146919</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
-        <v>44522</v>
+        <v>44536</v>
       </c>
       <c r="B14">
-        <v>110.2334321436119</v>
+        <v>187.9108765556907</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1">
-        <v>44523</v>
+        <v>44537</v>
       </c>
       <c r="B15">
-        <v>113.0892205411148</v>
+        <v>208.4725530177116</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1">
-        <v>44524</v>
+        <v>44538</v>
       </c>
       <c r="B16">
-        <v>122.2277434131241</v>
+        <v>214.1841298127174</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
-        <v>44525</v>
+        <v>44539</v>
       </c>
       <c r="B17">
-        <v>125.083531810627</v>
+        <v>226.7495987617301</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1">
-        <v>44526</v>
+        <v>44540</v>
       </c>
       <c r="B18">
-        <v>125.6546894901275</v>
+        <v>249.5959059417534</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1">
-        <v>44527</v>
+        <v>44541</v>
       </c>
       <c r="B19">
-        <v>141.0759468366432</v>
+        <v>258.163271134262</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
-        <v>44528</v>
+        <v>44542</v>
       </c>
       <c r="B20">
-        <v>153.6414157856559</v>
+        <v>251.8805366597556</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
-        <v>44529</v>
+        <v>44543</v>
       </c>
       <c r="B21">
-        <v>155.3548888241577</v>
+        <v>265.017163288269</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1">
-        <v>44530</v>
+        <v>44544</v>
       </c>
       <c r="B22">
-        <v>158.2106772216606</v>
+        <v>273.5845284807777</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1">
-        <v>44531</v>
+        <v>44545</v>
       </c>
       <c r="B23">
-        <v>164.4934116961669</v>
+        <v>294.1462049427986</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1">
-        <v>44532</v>
+        <v>44546</v>
       </c>
       <c r="B24">
-        <v>173.0607768886757</v>
+        <v>293.575047263298</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1">
-        <v>44533</v>
+        <v>44547</v>
       </c>
       <c r="B25">
-        <v>180.4858267221832</v>
+        <v>304.9982008533096</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1">
-        <v>44534</v>
+        <v>44548</v>
       </c>
       <c r="B26">
-        <v>186.7685611966896</v>
+        <v>316.9925121228218</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1">
-        <v>44535</v>
+        <v>44549</v>
       </c>
       <c r="B27">
-        <v>189.0531919146919</v>
+        <v>325.5598773153305</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1">
-        <v>44536</v>
+        <v>44550</v>
       </c>
       <c r="B28">
-        <v>187.9108765556907</v>
+        <v>347.2638691363525</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1">
-        <v>44537</v>
+        <v>44551</v>
       </c>
       <c r="B29">
-        <v>208.4725530177116</v>
+        <v>350.1196575338553</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1">
-        <v>44538</v>
+        <v>44552</v>
       </c>
       <c r="B30">
-        <v>214.1841298127174</v>
+        <v>379.2486991883849</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1">
-        <v>44539</v>
+        <v>44553</v>
       </c>
       <c r="B31">
-        <v>226.7495987617301</v>
+        <v>412.3758445994186</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1">
-        <v>44540</v>
+        <v>44554</v>
       </c>
       <c r="B32">
-        <v>249.5959059417534</v>
+        <v>421.5143674714279</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1">
-        <v>44541</v>
+        <v>44555</v>
       </c>
       <c r="B33">
-        <v>258.163271134262</v>
+        <v>437.5067824974441</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1">
-        <v>44542</v>
+        <v>44556</v>
       </c>
       <c r="B34">
-        <v>251.8805366597556</v>
+        <v>458.068458959465</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1">
-        <v>44543</v>
+        <v>44557</v>
       </c>
       <c r="B35">
-        <v>265.017163288269</v>
+        <v>515.1842269095229</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1">
-        <v>44544</v>
+        <v>44558</v>
       </c>
       <c r="B36">
-        <v>273.5845284807777</v>
+        <v>605.9982979501151</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1">
-        <v>44545</v>
+        <v>44559</v>
       </c>
       <c r="B37">
-        <v>294.1462049427986</v>
+        <v>689.9584768367005</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1">
-        <v>44546</v>
+        <v>44560</v>
       </c>
       <c r="B38">
-        <v>293.575047263298</v>
+        <v>799.049593621311</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1">
-        <v>44547</v>
+        <v>44561</v>
       </c>
       <c r="B39">
-        <v>304.9982008533096</v>
+        <v>872.7289342768858</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1">
-        <v>44548</v>
+        <v>44562</v>
       </c>
       <c r="B40">
-        <v>316.9925121228218</v>
+        <v>917.8503909574315</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1">
-        <v>44549</v>
+        <v>44563</v>
       </c>
       <c r="B41">
-        <v>325.5598773153305</v>
+        <v>986.9604701770018</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1">
-        <v>44550</v>
+        <v>44564</v>
       </c>
       <c r="B42">
-        <v>347.2638691363525</v>
+        <v>1136.032624526653</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1">
-        <v>44551</v>
+        <v>44565</v>
       </c>
       <c r="B43">
-        <v>350.1196575338553</v>
+        <v>1277.108571363296</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1">
-        <v>44552</v>
+        <v>44566</v>
       </c>
       <c r="B44">
-        <v>379.2486991883849</v>
+        <v>1404.476733891926</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1">
-        <v>44553</v>
+        <v>44567</v>
       </c>
       <c r="B45">
-        <v>412.3758445994186</v>
+        <v>1475.300286149997</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1">
-        <v>44554</v>
+        <v>44568</v>
       </c>
       <c r="B46">
-        <v>421.5143674714279</v>
+        <v>1643.791801602669</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1">
-        <v>44555</v>
+        <v>44569</v>
       </c>
       <c r="B47">
-        <v>437.5067824974441</v>
+        <v>1690.626731321716</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1">
-        <v>44556</v>
+        <v>44570</v>
       </c>
       <c r="B48">
-        <v>458.068458959465</v>
+        <v>1836.843097273865</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1">
-        <v>44557</v>
+        <v>44571</v>
       </c>
       <c r="B49">
-        <v>515.1842269095229</v>
+        <v>1914.520541685943</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1">
-        <v>44558</v>
+        <v>44572</v>
       </c>
       <c r="B50">
-        <v>605.9982979501151</v>
+        <v>2057.881119240589</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1">
-        <v>44559</v>
+        <v>44573</v>
       </c>
       <c r="B51">
-        <v>689.9584768367005</v>
+        <v>2128.70467149866</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1">
-        <v>44560</v>
+        <v>44574</v>
       </c>
       <c r="B52">
-        <v>799.049593621311</v>
+        <v>2186.96275480772</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1">
-        <v>44561</v>
+        <v>44575</v>
       </c>
       <c r="B53">
-        <v>872.7289342768858</v>
+        <v>2315.47323269535</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1">
-        <v>44562</v>
+        <v>44576</v>
       </c>
       <c r="B54">
-        <v>917.8503909574315</v>
+        <v>2353.740797221889</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1">
-        <v>44563</v>
+        <v>44577</v>
       </c>
       <c r="B55">
-        <v>986.9604701770018</v>
+        <v>2333.750278439369</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1">
-        <v>44564</v>
+        <v>44578</v>
       </c>
       <c r="B56">
-        <v>1136.032624526653</v>
+        <v>2321.184809490356</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1">
-        <v>44565</v>
+        <v>44579</v>
       </c>
       <c r="B57">
-        <v>1277.108571363296</v>
+        <v>2361.165847055397</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1">
-        <v>44566</v>
+        <v>44580</v>
       </c>
       <c r="B58">
-        <v>1404.476733891926</v>
+        <v>2350.313851144886</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1">
-        <v>44567</v>
+        <v>44581</v>
       </c>
       <c r="B59">
-        <v>1475.300286149997</v>
+        <v>2389.723731030426</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1">
-        <v>44568</v>
+        <v>44582</v>
       </c>
       <c r="B60">
-        <v>1643.791801602669</v>
+        <v>2351.456166503887</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1">
-        <v>44569</v>
+        <v>44583</v>
       </c>
       <c r="B61">
-        <v>1690.626731321716</v>
+        <v>2380.014050478916</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1">
-        <v>44570</v>
+        <v>44584</v>
       </c>
       <c r="B62">
-        <v>1836.843097273865</v>
+        <v>2274.921037450809</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1">
-        <v>44571</v>
+        <v>44585</v>
       </c>
       <c r="B63">
-        <v>1914.520541685943</v>
+        <v>2304.050079105338</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1">
-        <v>44572</v>
+        <v>44586</v>
       </c>
       <c r="B64">
-        <v>2057.881119240589</v>
+        <v>2192.674331602725</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1">
-        <v>44573</v>
+        <v>44587</v>
       </c>
       <c r="B65">
-        <v>2128.70467149866</v>
+        <v>2170.399182102203</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1">
-        <v>44574</v>
+        <v>44588</v>
       </c>
       <c r="B66">
-        <v>2186.96275480772</v>
+        <v>2138.414352050171</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1">
-        <v>44575</v>
+        <v>44589</v>
       </c>
       <c r="B67">
-        <v>2315.47323269535</v>
+        <v>2050.456069407081</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1">
-        <v>44576</v>
+        <v>44590</v>
       </c>
       <c r="B68">
-        <v>2353.740797221889</v>
+        <v>2020.184712393551</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1">
-        <v>44577</v>
+        <v>44591</v>
       </c>
       <c r="B69">
-        <v>2333.750278439369</v>
+        <v>2013.901977919044</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1">
-        <v>44578</v>
+        <v>44592</v>
       </c>
       <c r="B70">
-        <v>2321.184809490356</v>
+        <v>1988.199882341518</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1">
-        <v>44579</v>
+        <v>44593</v>
       </c>
       <c r="B71">
-        <v>2361.165847055397</v>
+        <v>1882.535711633911</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1">
-        <v>44580</v>
+        <v>44594</v>
       </c>
       <c r="B72">
-        <v>2350.313851144886</v>
+        <v>1831.131520478859</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1">
-        <v>44581</v>
+        <v>44595</v>
       </c>
       <c r="B73">
-        <v>2389.723731030426</v>
+        <v>1780.869644682808</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1">
-        <v>44582</v>
+        <v>44596</v>
       </c>
       <c r="B74">
-        <v>2351.456166503887</v>
+        <v>1711.188407783737</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1">
-        <v>44583</v>
+        <v>44597</v>
       </c>
       <c r="B75">
-        <v>2380.014050478916</v>
+        <v>1623.230125140648</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1">
-        <v>44584</v>
+        <v>44598</v>
       </c>
       <c r="B76">
-        <v>2274.921037450809</v>
+        <v>1583.249087575607</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1">
-        <v>44585</v>
+        <v>44599</v>
       </c>
       <c r="B77">
-        <v>2304.050079105338</v>
+        <v>1475.871443829498</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1">
-        <v>44586</v>
+        <v>44600</v>
       </c>
       <c r="B78">
-        <v>2192.674331602725</v>
+        <v>1390.768949583912</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1">
-        <v>44587</v>
+        <v>44601</v>
       </c>
       <c r="B79">
-        <v>2170.399182102203</v>
+        <v>1285.675936555805</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1">
-        <v>44588</v>
+        <v>44602</v>
       </c>
       <c r="B80">
-        <v>2138.414352050171</v>
+        <v>1192.00607711771</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1">
-        <v>44589</v>
+        <v>44603</v>
       </c>
       <c r="B81">
-        <v>2050.456069407081</v>
+        <v>1106.332425192623</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
-        <v>44590</v>
+        <v>44604</v>
       </c>
       <c r="B82">
-        <v>2020.184712393551</v>
+        <v>1053.214760999069</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
-        <v>44591</v>
+        <v>44605</v>
       </c>
       <c r="B83">
-        <v>2013.901977919044</v>
+        <v>1008.664461998024</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1">
-        <v>44592</v>
+        <v>44606</v>
       </c>
       <c r="B84">
-        <v>1988.199882341518</v>
+        <v>901.2868182519147</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1">
-        <v>44593</v>
+        <v>44607</v>
       </c>
       <c r="B85">
-        <v>1882.535711633911</v>
+        <v>839.0306311863516</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
-        <v>44594</v>
+        <v>44608</v>
       </c>
       <c r="B86">
-        <v>1831.131520478859</v>
+        <v>759.639713735771</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
-        <v>44595</v>
+        <v>44609</v>
       </c>
       <c r="B87">
-        <v>1780.869644682808</v>
+        <v>670.5391157336805</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
-        <v>44596</v>
+        <v>44610</v>
       </c>
       <c r="B88">
-        <v>1711.188407783737</v>
+        <v>611.1387170656203</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
-        <v>44597</v>
+        <v>44611</v>
       </c>
       <c r="B89">
-        <v>1623.230125140648</v>
+        <v>620.2772399376296</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
-        <v>44598</v>
+        <v>44612</v>
       </c>
       <c r="B90">
-        <v>1583.249087575607</v>
+        <v>600.2867211551093</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
-        <v>44599</v>
+        <v>44613</v>
       </c>
       <c r="B91">
-        <v>1475.871443829498</v>
+        <v>552.8806337565611</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1">
-        <v>44600</v>
+        <v>44614</v>
       </c>
       <c r="B92">
-        <v>1390.768949583912</v>
+        <v>535.7459033715438</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1">
-        <v>44601</v>
+        <v>44615</v>
       </c>
       <c r="B93">
-        <v>1285.675936555805</v>
+        <v>504.3322309990118</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1">
-        <v>44602</v>
+        <v>44616</v>
       </c>
       <c r="B94">
-        <v>1192.00607711771</v>
+        <v>463.2088780749701</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1">
-        <v>44603</v>
+        <v>44617</v>
       </c>
       <c r="B95">
-        <v>1106.332425192623</v>
+        <v>439.7914132154464</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1">
-        <v>44604</v>
+        <v>44618</v>
       </c>
       <c r="B96">
-        <v>1053.214760999069</v>
+        <v>430.6528903434371</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
-        <v>44605</v>
+        <v>44619</v>
       </c>
       <c r="B97">
-        <v>1008.664461998024</v>
+        <v>419.2297367534255</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
-        <v>44606</v>
+        <v>44620</v>
       </c>
       <c r="B98">
-        <v>901.2868182519147</v>
+        <v>423.2278405099296</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
-        <v>44607</v>
+        <v>44621</v>
       </c>
       <c r="B99">
-        <v>839.0306311863516</v>
+        <v>404.950794765911</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
-        <v>44608</v>
+        <v>44622</v>
       </c>
       <c r="B100">
-        <v>759.639713735771</v>
+        <v>394.6699565349006</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>44609</v>
+        <v>44623</v>
       </c>
       <c r="B101">
-        <v>670.5391157336805</v>
+        <v>387.8160643808936</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>44610</v>
+        <v>44624</v>
       </c>
       <c r="B102">
-        <v>611.1387170656203</v>
+        <v>370.1101763163757</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
-        <v>44611</v>
+        <v>44625</v>
       </c>
       <c r="B103">
-        <v>620.2772399376296</v>
+        <v>344.9792384183502</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
-        <v>44612</v>
+        <v>44626</v>
       </c>
       <c r="B104">
-        <v>600.2867211551093</v>
+        <v>339.2676616233443</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
-        <v>44613</v>
+        <v>44627</v>
       </c>
       <c r="B105">
-        <v>552.8806337565611</v>
+        <v>328.4156657128333</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
-        <v>44614</v>
+        <v>44628</v>
       </c>
       <c r="B106">
-        <v>535.7459033715438</v>
+        <v>311.2809353278159</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
-        <v>44615</v>
+        <v>44629</v>
       </c>
       <c r="B107">
-        <v>504.3322309990118</v>
+        <v>299.8577817378043</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
-        <v>44616</v>
+        <v>44630</v>
       </c>
       <c r="B108">
-        <v>463.2088780749701</v>
+        <v>301.5712547763061</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
-        <v>44617</v>
+        <v>44631</v>
       </c>
       <c r="B109">
-        <v>439.7914132154464</v>
+        <v>291.8615742247962</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
-        <v>44618</v>
+        <v>44632</v>
       </c>
       <c r="B110">
-        <v>430.6528903434371</v>
+        <v>295.8596779813003</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
-        <v>44619</v>
+        <v>44633</v>
       </c>
       <c r="B111">
-        <v>419.2297367534255</v>
+        <v>294.1462049427986</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
-        <v>44620</v>
+        <v>44634</v>
       </c>
       <c r="B112">
-        <v>423.2278405099296</v>
+        <v>283.2942090322875</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>44621</v>
+        <v>44635</v>
       </c>
       <c r="B113">
-        <v>404.950794765911</v>
+        <v>280.4384206347846</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>44622</v>
+        <v>44636</v>
       </c>
       <c r="B114">
-        <v>394.6699565349006</v>
+        <v>285.5788397502899</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>44623</v>
+        <v>44637</v>
       </c>
       <c r="B115">
-        <v>387.8160643808936</v>
+        <v>294.7173626222992</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>44624</v>
+        <v>44638</v>
       </c>
       <c r="B116">
-        <v>370.1101763163757</v>
+        <v>304.427043173809</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>44625</v>
+        <v>44639</v>
       </c>
       <c r="B117">
-        <v>344.9792384183502</v>
+        <v>303.2847278148078</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>44626</v>
+        <v>44640</v>
       </c>
       <c r="B118">
-        <v>339.2676616233443</v>
+        <v>307.8539892508124</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>44627</v>
+        <v>44641</v>
       </c>
       <c r="B119">
-        <v>328.4156657128333</v>
+        <v>332.9849271488379</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>44628</v>
+        <v>44642</v>
       </c>
       <c r="B120">
-        <v>311.2809353278159</v>
+        <v>346.6927114568519</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>44629</v>
+        <v>44643</v>
       </c>
       <c r="B121">
-        <v>299.8577817378043</v>
+        <v>358.6870227263641</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>44630</v>
+        <v>44644</v>
       </c>
       <c r="B122">
-        <v>301.5712547763061</v>
+        <v>374.1082800728797</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>44631</v>
+        <v>44645</v>
       </c>
       <c r="B123">
-        <v>291.8615742247962</v>
+        <v>379.8198568678855</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>44632</v>
+        <v>44646</v>
       </c>
       <c r="B124">
-        <v>295.8596779813003</v>
+        <v>374.1082800728797</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>44633</v>
+        <v>44647</v>
       </c>
       <c r="B125">
-        <v>294.1462049427986</v>
+        <v>374.1082800728797</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>44634</v>
+        <v>44648</v>
       </c>
       <c r="B126">
-        <v>283.2942090322875</v>
+        <v>395.2411142144012</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>44635</v>
+        <v>44649</v>
       </c>
       <c r="B127">
-        <v>280.4384206347846</v>
+        <v>388.3872220603943</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>44636</v>
+        <v>44650</v>
       </c>
       <c r="B128">
-        <v>285.5788397502899</v>
+        <v>397.5257449324035</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>44637</v>
+        <v>44651</v>
       </c>
       <c r="B129">
-        <v>294.7173626222992</v>
+        <v>390.6718527783965</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>44638</v>
+        <v>44652</v>
       </c>
       <c r="B130">
-        <v>304.427043173809</v>
+        <v>380.9621722268867</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>44639</v>
+        <v>44653</v>
       </c>
       <c r="B131">
-        <v>303.2847278148078</v>
+        <v>380.9621722268867</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>44640</v>
+        <v>44654</v>
       </c>
       <c r="B132">
-        <v>307.8539892508124</v>
+        <v>378.1063838293838</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>44641</v>
+        <v>44655</v>
       </c>
       <c r="B133">
-        <v>332.9849271488379</v>
+        <v>366.1120725598716</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>44642</v>
+        <v>44656</v>
       </c>
       <c r="B134">
-        <v>346.6927114568519</v>
+        <v>361.542811123867</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>44643</v>
+        <v>44657</v>
       </c>
       <c r="B135">
-        <v>358.6870227263641</v>
+        <v>362.6851264828681</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>44644</v>
+        <v>44658</v>
       </c>
       <c r="B136">
-        <v>374.1082800728797</v>
+        <v>342.6946077003478</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>44645</v>
+        <v>44659</v>
       </c>
       <c r="B137">
-        <v>379.8198568678855</v>
+        <v>377.5352261498832</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>44646</v>
+        <v>44660</v>
       </c>
       <c r="B138">
-        <v>374.1082800728797</v>
+        <v>396.3834295734024</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>44647</v>
+        <v>44661</v>
       </c>
       <c r="B139">
-        <v>374.1082800728797</v>
+        <v>410.0912138814163</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>44648</v>
+        <v>44662</v>
       </c>
       <c r="B140">
-        <v>395.2411142144012</v>
+        <v>444.360674651451</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>44649</v>
+        <v>44663</v>
       </c>
       <c r="B141">
-        <v>388.3872220603943</v>
+        <v>487.7686582934951</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>44650</v>
+        <v>44664</v>
       </c>
       <c r="B142">
-        <v>397.5257449324035</v>
+        <v>506.0457040375136</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>44651</v>
+        <v>44665</v>
       </c>
       <c r="B143">
-        <v>390.6718527783965</v>
+        <v>532.8901149740409</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>44652</v>
+        <v>44666</v>
       </c>
       <c r="B144">
-        <v>380.9621722268867</v>
+        <v>556.8787375130653</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>44653</v>
+        <v>44667</v>
       </c>
       <c r="B145">
-        <v>380.9621722268867</v>
+        <v>578.5827293340873</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>44654</v>
+        <v>44668</v>
       </c>
       <c r="B146">
-        <v>378.1063838293838</v>
+        <v>612.8521901041221</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>44655</v>
+        <v>44669</v>
       </c>
       <c r="B147">
-        <v>366.1120725598716</v>
+        <v>672.2525887721823</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>44656</v>
+        <v>44670</v>
       </c>
       <c r="B148">
-        <v>361.542811123867</v>
+        <v>710.5201532987212</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>44657</v>
+        <v>44671</v>
       </c>
       <c r="B149">
-        <v>362.6851264828681</v>
+        <v>763.0666598127744</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>44658</v>
+        <v>44672</v>
       </c>
       <c r="B150">
-        <v>342.6946077003478</v>
+        <v>825.8940045578382</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/actualizacion_protocolo/incidencia14.xlsx
+++ b/data/input/actualizacion_protocolo/incidencia14.xlsx
@@ -377,967 +377,967 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>44524</v>
+        <v>44527</v>
       </c>
       <c r="B2">
-        <v>122.2277434131241</v>
+        <v>141.0759468366432</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>44525</v>
+        <v>44528</v>
       </c>
       <c r="B3">
-        <v>125.083531810627</v>
+        <v>153.6414157856559</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>44526</v>
+        <v>44529</v>
       </c>
       <c r="B4">
-        <v>125.6546894901275</v>
+        <v>155.3548888241577</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>44527</v>
+        <v>44530</v>
       </c>
       <c r="B5">
-        <v>141.0759468366432</v>
+        <v>158.2106772216606</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>44528</v>
+        <v>44531</v>
       </c>
       <c r="B6">
-        <v>153.6414157856559</v>
+        <v>164.4934116961669</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>44529</v>
+        <v>44532</v>
       </c>
       <c r="B7">
-        <v>155.3548888241577</v>
+        <v>173.0607768886757</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>44530</v>
+        <v>44533</v>
       </c>
       <c r="B8">
-        <v>158.2106772216606</v>
+        <v>180.4858267221832</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>44531</v>
+        <v>44534</v>
       </c>
       <c r="B9">
-        <v>164.4934116961669</v>
+        <v>186.7685611966896</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>44532</v>
+        <v>44535</v>
       </c>
       <c r="B10">
-        <v>173.0607768886757</v>
+        <v>189.0531919146919</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
-        <v>44533</v>
+        <v>44536</v>
       </c>
       <c r="B11">
-        <v>180.4858267221832</v>
+        <v>187.9108765556907</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
-        <v>44534</v>
+        <v>44537</v>
       </c>
       <c r="B12">
-        <v>186.7685611966896</v>
+        <v>208.4725530177116</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
-        <v>44535</v>
+        <v>44538</v>
       </c>
       <c r="B13">
-        <v>189.0531919146919</v>
+        <v>214.1841298127174</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
-        <v>44536</v>
+        <v>44539</v>
       </c>
       <c r="B14">
-        <v>187.9108765556907</v>
+        <v>226.7495987617301</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1">
-        <v>44537</v>
+        <v>44540</v>
       </c>
       <c r="B15">
-        <v>208.4725530177116</v>
+        <v>249.5959059417534</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1">
-        <v>44538</v>
+        <v>44541</v>
       </c>
       <c r="B16">
-        <v>214.1841298127174</v>
+        <v>258.163271134262</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
-        <v>44539</v>
+        <v>44542</v>
       </c>
       <c r="B17">
-        <v>226.7495987617301</v>
+        <v>251.8805366597556</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1">
-        <v>44540</v>
+        <v>44543</v>
       </c>
       <c r="B18">
-        <v>249.5959059417534</v>
+        <v>265.017163288269</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1">
-        <v>44541</v>
+        <v>44544</v>
       </c>
       <c r="B19">
-        <v>258.163271134262</v>
+        <v>273.5845284807777</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
-        <v>44542</v>
+        <v>44545</v>
       </c>
       <c r="B20">
-        <v>251.8805366597556</v>
+        <v>294.1462049427986</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
-        <v>44543</v>
+        <v>44546</v>
       </c>
       <c r="B21">
-        <v>265.017163288269</v>
+        <v>293.575047263298</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1">
-        <v>44544</v>
+        <v>44547</v>
       </c>
       <c r="B22">
-        <v>273.5845284807777</v>
+        <v>304.9982008533096</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1">
-        <v>44545</v>
+        <v>44548</v>
       </c>
       <c r="B23">
-        <v>294.1462049427986</v>
+        <v>316.9925121228218</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1">
-        <v>44546</v>
+        <v>44549</v>
       </c>
       <c r="B24">
-        <v>293.575047263298</v>
+        <v>325.5598773153305</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1">
-        <v>44547</v>
+        <v>44550</v>
       </c>
       <c r="B25">
-        <v>304.9982008533096</v>
+        <v>347.2638691363525</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1">
-        <v>44548</v>
+        <v>44551</v>
       </c>
       <c r="B26">
-        <v>316.9925121228218</v>
+        <v>350.1196575338553</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1">
-        <v>44549</v>
+        <v>44552</v>
       </c>
       <c r="B27">
-        <v>325.5598773153305</v>
+        <v>379.2486991883849</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1">
-        <v>44550</v>
+        <v>44553</v>
       </c>
       <c r="B28">
-        <v>347.2638691363525</v>
+        <v>412.3758445994186</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1">
-        <v>44551</v>
+        <v>44554</v>
       </c>
       <c r="B29">
-        <v>350.1196575338553</v>
+        <v>421.5143674714279</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1">
-        <v>44552</v>
+        <v>44555</v>
       </c>
       <c r="B30">
-        <v>379.2486991883849</v>
+        <v>437.5067824974441</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1">
-        <v>44553</v>
+        <v>44556</v>
       </c>
       <c r="B31">
-        <v>412.3758445994186</v>
+        <v>458.068458959465</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1">
-        <v>44554</v>
+        <v>44557</v>
       </c>
       <c r="B32">
-        <v>421.5143674714279</v>
+        <v>515.1842269095229</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1">
-        <v>44555</v>
+        <v>44558</v>
       </c>
       <c r="B33">
-        <v>437.5067824974441</v>
+        <v>605.9982979501151</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1">
-        <v>44556</v>
+        <v>44559</v>
       </c>
       <c r="B34">
-        <v>458.068458959465</v>
+        <v>689.9584768367005</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1">
-        <v>44557</v>
+        <v>44560</v>
       </c>
       <c r="B35">
-        <v>515.1842269095229</v>
+        <v>799.049593621311</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1">
-        <v>44558</v>
+        <v>44561</v>
       </c>
       <c r="B36">
-        <v>605.9982979501151</v>
+        <v>872.7289342768858</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1">
-        <v>44559</v>
+        <v>44562</v>
       </c>
       <c r="B37">
-        <v>689.9584768367005</v>
+        <v>917.8503909574315</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1">
-        <v>44560</v>
+        <v>44563</v>
       </c>
       <c r="B38">
-        <v>799.049593621311</v>
+        <v>986.9604701770018</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1">
-        <v>44561</v>
+        <v>44564</v>
       </c>
       <c r="B39">
-        <v>872.7289342768858</v>
+        <v>1136.032624526653</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1">
-        <v>44562</v>
+        <v>44565</v>
       </c>
       <c r="B40">
-        <v>917.8503909574315</v>
+        <v>1277.108571363296</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1">
-        <v>44563</v>
+        <v>44566</v>
       </c>
       <c r="B41">
-        <v>986.9604701770018</v>
+        <v>1404.476733891926</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1">
-        <v>44564</v>
+        <v>44567</v>
       </c>
       <c r="B42">
-        <v>1136.032624526653</v>
+        <v>1475.300286149997</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1">
-        <v>44565</v>
+        <v>44568</v>
       </c>
       <c r="B43">
-        <v>1277.108571363296</v>
+        <v>1643.791801602669</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1">
-        <v>44566</v>
+        <v>44569</v>
       </c>
       <c r="B44">
-        <v>1404.476733891926</v>
+        <v>1690.626731321716</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1">
-        <v>44567</v>
+        <v>44570</v>
       </c>
       <c r="B45">
-        <v>1475.300286149997</v>
+        <v>1836.843097273865</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1">
-        <v>44568</v>
+        <v>44571</v>
       </c>
       <c r="B46">
-        <v>1643.791801602669</v>
+        <v>1914.520541685943</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1">
-        <v>44569</v>
+        <v>44572</v>
       </c>
       <c r="B47">
-        <v>1690.626731321716</v>
+        <v>2057.881119240589</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1">
-        <v>44570</v>
+        <v>44573</v>
       </c>
       <c r="B48">
-        <v>1836.843097273865</v>
+        <v>2128.70467149866</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1">
-        <v>44571</v>
+        <v>44574</v>
       </c>
       <c r="B49">
-        <v>1914.520541685943</v>
+        <v>2186.96275480772</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1">
-        <v>44572</v>
+        <v>44575</v>
       </c>
       <c r="B50">
-        <v>2057.881119240589</v>
+        <v>2315.47323269535</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1">
-        <v>44573</v>
+        <v>44576</v>
       </c>
       <c r="B51">
-        <v>2128.70467149866</v>
+        <v>2353.740797221889</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1">
-        <v>44574</v>
+        <v>44577</v>
       </c>
       <c r="B52">
-        <v>2186.96275480772</v>
+        <v>2333.750278439369</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1">
-        <v>44575</v>
+        <v>44578</v>
       </c>
       <c r="B53">
-        <v>2315.47323269535</v>
+        <v>2321.184809490356</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1">
-        <v>44576</v>
+        <v>44579</v>
       </c>
       <c r="B54">
-        <v>2353.740797221889</v>
+        <v>2361.165847055397</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1">
-        <v>44577</v>
+        <v>44580</v>
       </c>
       <c r="B55">
-        <v>2333.750278439369</v>
+        <v>2350.313851144886</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1">
-        <v>44578</v>
+        <v>44581</v>
       </c>
       <c r="B56">
-        <v>2321.184809490356</v>
+        <v>2389.723731030426</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1">
-        <v>44579</v>
+        <v>44582</v>
       </c>
       <c r="B57">
-        <v>2361.165847055397</v>
+        <v>2351.456166503887</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1">
-        <v>44580</v>
+        <v>44583</v>
       </c>
       <c r="B58">
-        <v>2350.313851144886</v>
+        <v>2380.014050478916</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1">
-        <v>44581</v>
+        <v>44584</v>
       </c>
       <c r="B59">
-        <v>2389.723731030426</v>
+        <v>2274.921037450809</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1">
-        <v>44582</v>
+        <v>44585</v>
       </c>
       <c r="B60">
-        <v>2351.456166503887</v>
+        <v>2304.050079105338</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1">
-        <v>44583</v>
+        <v>44586</v>
       </c>
       <c r="B61">
-        <v>2380.014050478916</v>
+        <v>2192.674331602725</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1">
-        <v>44584</v>
+        <v>44587</v>
       </c>
       <c r="B62">
-        <v>2274.921037450809</v>
+        <v>2170.399182102203</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1">
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="B63">
-        <v>2304.050079105338</v>
+        <v>2138.414352050171</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1">
-        <v>44586</v>
+        <v>44589</v>
       </c>
       <c r="B64">
-        <v>2192.674331602725</v>
+        <v>2050.456069407081</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1">
-        <v>44587</v>
+        <v>44590</v>
       </c>
       <c r="B65">
-        <v>2170.399182102203</v>
+        <v>2020.184712393551</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1">
-        <v>44588</v>
+        <v>44591</v>
       </c>
       <c r="B66">
-        <v>2138.414352050171</v>
+        <v>2013.901977919044</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1">
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="B67">
-        <v>2050.456069407081</v>
+        <v>1988.199882341518</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1">
-        <v>44590</v>
+        <v>44593</v>
       </c>
       <c r="B68">
-        <v>2020.184712393551</v>
+        <v>1882.535711633911</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1">
-        <v>44591</v>
+        <v>44594</v>
       </c>
       <c r="B69">
-        <v>2013.901977919044</v>
+        <v>1831.131520478859</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1">
-        <v>44592</v>
+        <v>44595</v>
       </c>
       <c r="B70">
-        <v>1988.199882341518</v>
+        <v>1780.869644682808</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1">
-        <v>44593</v>
+        <v>44596</v>
       </c>
       <c r="B71">
-        <v>1882.535711633911</v>
+        <v>1711.188407783737</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1">
-        <v>44594</v>
+        <v>44597</v>
       </c>
       <c r="B72">
-        <v>1831.131520478859</v>
+        <v>1623.230125140648</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1">
-        <v>44595</v>
+        <v>44598</v>
       </c>
       <c r="B73">
-        <v>1780.869644682808</v>
+        <v>1583.249087575607</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1">
-        <v>44596</v>
+        <v>44599</v>
       </c>
       <c r="B74">
-        <v>1711.188407783737</v>
+        <v>1475.871443829498</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1">
-        <v>44597</v>
+        <v>44600</v>
       </c>
       <c r="B75">
-        <v>1623.230125140648</v>
+        <v>1390.768949583912</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1">
-        <v>44598</v>
+        <v>44601</v>
       </c>
       <c r="B76">
-        <v>1583.249087575607</v>
+        <v>1285.675936555805</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1">
-        <v>44599</v>
+        <v>44602</v>
       </c>
       <c r="B77">
-        <v>1475.871443829498</v>
+        <v>1192.00607711771</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1">
-        <v>44600</v>
+        <v>44603</v>
       </c>
       <c r="B78">
-        <v>1390.768949583912</v>
+        <v>1106.332425192623</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1">
-        <v>44601</v>
+        <v>44604</v>
       </c>
       <c r="B79">
-        <v>1285.675936555805</v>
+        <v>1053.214760999069</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1">
-        <v>44602</v>
+        <v>44605</v>
       </c>
       <c r="B80">
-        <v>1192.00607711771</v>
+        <v>1008.664461998024</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1">
-        <v>44603</v>
+        <v>44606</v>
       </c>
       <c r="B81">
-        <v>1106.332425192623</v>
+        <v>901.2868182519147</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
-        <v>44604</v>
+        <v>44607</v>
       </c>
       <c r="B82">
-        <v>1053.214760999069</v>
+        <v>839.0306311863516</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
-        <v>44605</v>
+        <v>44608</v>
       </c>
       <c r="B83">
-        <v>1008.664461998024</v>
+        <v>759.639713735771</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1">
-        <v>44606</v>
+        <v>44609</v>
       </c>
       <c r="B84">
-        <v>901.2868182519147</v>
+        <v>670.5391157336805</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1">
-        <v>44607</v>
+        <v>44610</v>
       </c>
       <c r="B85">
-        <v>839.0306311863516</v>
+        <v>611.1387170656203</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
-        <v>44608</v>
+        <v>44611</v>
       </c>
       <c r="B86">
-        <v>759.639713735771</v>
+        <v>620.2772399376296</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
-        <v>44609</v>
+        <v>44612</v>
       </c>
       <c r="B87">
-        <v>670.5391157336805</v>
+        <v>600.2867211551093</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
-        <v>44610</v>
+        <v>44613</v>
       </c>
       <c r="B88">
-        <v>611.1387170656203</v>
+        <v>552.8806337565611</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
-        <v>44611</v>
+        <v>44614</v>
       </c>
       <c r="B89">
-        <v>620.2772399376296</v>
+        <v>535.7459033715438</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
-        <v>44612</v>
+        <v>44615</v>
       </c>
       <c r="B90">
-        <v>600.2867211551093</v>
+        <v>504.3322309990118</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
-        <v>44613</v>
+        <v>44616</v>
       </c>
       <c r="B91">
-        <v>552.8806337565611</v>
+        <v>463.2088780749701</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1">
-        <v>44614</v>
+        <v>44617</v>
       </c>
       <c r="B92">
-        <v>535.7459033715438</v>
+        <v>439.7914132154464</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1">
-        <v>44615</v>
+        <v>44618</v>
       </c>
       <c r="B93">
-        <v>504.3322309990118</v>
+        <v>430.6528903434371</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1">
-        <v>44616</v>
+        <v>44619</v>
       </c>
       <c r="B94">
-        <v>463.2088780749701</v>
+        <v>419.2297367534255</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1">
-        <v>44617</v>
+        <v>44620</v>
       </c>
       <c r="B95">
-        <v>439.7914132154464</v>
+        <v>423.2278405099296</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1">
-        <v>44618</v>
+        <v>44621</v>
       </c>
       <c r="B96">
-        <v>430.6528903434371</v>
+        <v>404.950794765911</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
-        <v>44619</v>
+        <v>44622</v>
       </c>
       <c r="B97">
-        <v>419.2297367534255</v>
+        <v>394.6699565349006</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
-        <v>44620</v>
+        <v>44623</v>
       </c>
       <c r="B98">
-        <v>423.2278405099296</v>
+        <v>387.8160643808936</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
-        <v>44621</v>
+        <v>44624</v>
       </c>
       <c r="B99">
-        <v>404.950794765911</v>
+        <v>370.1101763163757</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
-        <v>44622</v>
+        <v>44625</v>
       </c>
       <c r="B100">
-        <v>394.6699565349006</v>
+        <v>344.9792384183502</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>44623</v>
+        <v>44626</v>
       </c>
       <c r="B101">
-        <v>387.8160643808936</v>
+        <v>339.2676616233443</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>44624</v>
+        <v>44627</v>
       </c>
       <c r="B102">
-        <v>370.1101763163757</v>
+        <v>328.4156657128333</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
-        <v>44625</v>
+        <v>44628</v>
       </c>
       <c r="B103">
-        <v>344.9792384183502</v>
+        <v>311.2809353278159</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
-        <v>44626</v>
+        <v>44629</v>
       </c>
       <c r="B104">
-        <v>339.2676616233443</v>
+        <v>299.8577817378043</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
-        <v>44627</v>
+        <v>44630</v>
       </c>
       <c r="B105">
-        <v>328.4156657128333</v>
+        <v>301.5712547763061</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
-        <v>44628</v>
+        <v>44631</v>
       </c>
       <c r="B106">
-        <v>311.2809353278159</v>
+        <v>291.8615742247962</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
-        <v>44629</v>
+        <v>44632</v>
       </c>
       <c r="B107">
-        <v>299.8577817378043</v>
+        <v>295.8596779813003</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
-        <v>44630</v>
+        <v>44633</v>
       </c>
       <c r="B108">
-        <v>301.5712547763061</v>
+        <v>294.1462049427986</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
-        <v>44631</v>
+        <v>44634</v>
       </c>
       <c r="B109">
-        <v>291.8615742247962</v>
+        <v>283.2942090322875</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
-        <v>44632</v>
+        <v>44635</v>
       </c>
       <c r="B110">
-        <v>295.8596779813003</v>
+        <v>280.4384206347846</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
-        <v>44633</v>
+        <v>44636</v>
       </c>
       <c r="B111">
-        <v>294.1462049427986</v>
+        <v>285.5788397502899</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
-        <v>44634</v>
+        <v>44637</v>
       </c>
       <c r="B112">
-        <v>283.2942090322875</v>
+        <v>294.7173626222992</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>44635</v>
+        <v>44638</v>
       </c>
       <c r="B113">
-        <v>280.4384206347846</v>
+        <v>304.427043173809</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>44636</v>
+        <v>44639</v>
       </c>
       <c r="B114">
-        <v>285.5788397502899</v>
+        <v>303.2847278148078</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>44637</v>
+        <v>44640</v>
       </c>
       <c r="B115">
-        <v>294.7173626222992</v>
+        <v>307.8539892508124</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>44638</v>
+        <v>44641</v>
       </c>
       <c r="B116">
-        <v>304.427043173809</v>
+        <v>332.9849271488379</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>44639</v>
+        <v>44642</v>
       </c>
       <c r="B117">
-        <v>303.2847278148078</v>
+        <v>346.6927114568519</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>44640</v>
+        <v>44643</v>
       </c>
       <c r="B118">
-        <v>307.8539892508124</v>
+        <v>358.6870227263641</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>44641</v>
+        <v>44644</v>
       </c>
       <c r="B119">
-        <v>332.9849271488379</v>
+        <v>374.1082800728797</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>44642</v>
+        <v>44645</v>
       </c>
       <c r="B120">
-        <v>346.6927114568519</v>
+        <v>379.8198568678855</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>44643</v>
+        <v>44646</v>
       </c>
       <c r="B121">
-        <v>358.6870227263641</v>
+        <v>374.1082800728797</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>44644</v>
+        <v>44647</v>
       </c>
       <c r="B122">
         <v>374.1082800728797</v>
@@ -1345,226 +1345,226 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>44645</v>
+        <v>44648</v>
       </c>
       <c r="B123">
-        <v>379.8198568678855</v>
+        <v>395.2411142144012</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>44646</v>
+        <v>44649</v>
       </c>
       <c r="B124">
-        <v>374.1082800728797</v>
+        <v>388.3872220603943</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>44647</v>
+        <v>44650</v>
       </c>
       <c r="B125">
-        <v>374.1082800728797</v>
+        <v>397.5257449324035</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>44648</v>
+        <v>44651</v>
       </c>
       <c r="B126">
-        <v>395.2411142144012</v>
+        <v>390.6718527783965</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>44649</v>
+        <v>44652</v>
       </c>
       <c r="B127">
-        <v>388.3872220603943</v>
+        <v>380.9621722268867</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>44650</v>
+        <v>44653</v>
       </c>
       <c r="B128">
-        <v>397.5257449324035</v>
+        <v>380.9621722268867</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>44651</v>
+        <v>44654</v>
       </c>
       <c r="B129">
-        <v>390.6718527783965</v>
+        <v>378.1063838293838</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>44652</v>
+        <v>44655</v>
       </c>
       <c r="B130">
-        <v>380.9621722268867</v>
+        <v>366.1120725598716</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>44653</v>
+        <v>44656</v>
       </c>
       <c r="B131">
-        <v>380.9621722268867</v>
+        <v>361.542811123867</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>44654</v>
+        <v>44657</v>
       </c>
       <c r="B132">
-        <v>378.1063838293838</v>
+        <v>362.6851264828681</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>44655</v>
+        <v>44658</v>
       </c>
       <c r="B133">
-        <v>366.1120725598716</v>
+        <v>342.6946077003478</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>44656</v>
+        <v>44659</v>
       </c>
       <c r="B134">
-        <v>361.542811123867</v>
+        <v>377.5352261498832</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>44657</v>
+        <v>44660</v>
       </c>
       <c r="B135">
-        <v>362.6851264828681</v>
+        <v>396.3834295734024</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>44658</v>
+        <v>44661</v>
       </c>
       <c r="B136">
-        <v>342.6946077003478</v>
+        <v>410.0912138814163</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>44659</v>
+        <v>44662</v>
       </c>
       <c r="B137">
-        <v>377.5352261498832</v>
+        <v>444.360674651451</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>44660</v>
+        <v>44663</v>
       </c>
       <c r="B138">
-        <v>396.3834295734024</v>
+        <v>487.7686582934951</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>44661</v>
+        <v>44664</v>
       </c>
       <c r="B139">
-        <v>410.0912138814163</v>
+        <v>506.0457040375136</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>44662</v>
+        <v>44665</v>
       </c>
       <c r="B140">
-        <v>444.360674651451</v>
+        <v>532.8901149740409</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>44663</v>
+        <v>44666</v>
       </c>
       <c r="B141">
-        <v>487.7686582934951</v>
+        <v>556.8787375130653</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>44664</v>
+        <v>44667</v>
       </c>
       <c r="B142">
-        <v>506.0457040375136</v>
+        <v>578.5827293340873</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>44665</v>
+        <v>44668</v>
       </c>
       <c r="B143">
-        <v>532.8901149740409</v>
+        <v>612.8521901041221</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>44666</v>
+        <v>44669</v>
       </c>
       <c r="B144">
-        <v>556.8787375130653</v>
+        <v>671.6814310926818</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="B145">
-        <v>578.5827293340873</v>
+        <v>708.8066802602194</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>44668</v>
+        <v>44671</v>
       </c>
       <c r="B146">
-        <v>612.8521901041221</v>
+        <v>761.3531867742728</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>44669</v>
+        <v>44672</v>
       </c>
       <c r="B147">
-        <v>672.2525887721823</v>
+        <v>823.6093738398359</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>44670</v>
+        <v>44673</v>
       </c>
       <c r="B148">
-        <v>710.5201532987212</v>
+        <v>859.021149968872</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>44671</v>
+        <v>44674</v>
       </c>
       <c r="B149">
-        <v>763.0666598127744</v>
+        <v>875.0135649948882</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>44672</v>
+        <v>44675</v>
       </c>
       <c r="B150">
-        <v>825.8940045578382</v>
+        <v>903.0002912904166</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/actualizacion_protocolo/incidencia14.xlsx
+++ b/data/input/actualizacion_protocolo/incidencia14.xlsx
@@ -377,1194 +377,1194 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>44527</v>
+        <v>44548</v>
       </c>
       <c r="B2">
-        <v>141.0759468366432</v>
+        <v>316.9925121228218</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>44528</v>
+        <v>44549</v>
       </c>
       <c r="B3">
-        <v>153.6414157856559</v>
+        <v>325.5598773153305</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>44529</v>
+        <v>44550</v>
       </c>
       <c r="B4">
-        <v>155.3548888241577</v>
+        <v>347.2638691363525</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>44530</v>
+        <v>44551</v>
       </c>
       <c r="B5">
-        <v>158.2106772216606</v>
+        <v>350.1196575338553</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>44531</v>
+        <v>44552</v>
       </c>
       <c r="B6">
-        <v>164.4934116961669</v>
+        <v>379.2486991883849</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>44532</v>
+        <v>44553</v>
       </c>
       <c r="B7">
-        <v>173.0607768886757</v>
+        <v>412.3758445994186</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>44533</v>
+        <v>44554</v>
       </c>
       <c r="B8">
-        <v>180.4858267221832</v>
+        <v>421.5143674714279</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>44534</v>
+        <v>44555</v>
       </c>
       <c r="B9">
-        <v>186.7685611966896</v>
+        <v>437.5067824974441</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>44535</v>
+        <v>44556</v>
       </c>
       <c r="B10">
-        <v>189.0531919146919</v>
+        <v>458.068458959465</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
-        <v>44536</v>
+        <v>44557</v>
       </c>
       <c r="B11">
-        <v>187.9108765556907</v>
+        <v>515.1842269095229</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
-        <v>44537</v>
+        <v>44558</v>
       </c>
       <c r="B12">
-        <v>208.4725530177116</v>
+        <v>605.9982979501151</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
-        <v>44538</v>
+        <v>44559</v>
       </c>
       <c r="B13">
-        <v>214.1841298127174</v>
+        <v>689.9584768367005</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
-        <v>44539</v>
+        <v>44560</v>
       </c>
       <c r="B14">
-        <v>226.7495987617301</v>
+        <v>799.049593621311</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1">
-        <v>44540</v>
+        <v>44561</v>
       </c>
       <c r="B15">
-        <v>249.5959059417534</v>
+        <v>872.7289342768858</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1">
-        <v>44541</v>
+        <v>44562</v>
       </c>
       <c r="B16">
-        <v>258.163271134262</v>
+        <v>917.8503909574315</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
-        <v>44542</v>
+        <v>44563</v>
       </c>
       <c r="B17">
-        <v>251.8805366597556</v>
+        <v>986.9604701770018</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1">
-        <v>44543</v>
+        <v>44564</v>
       </c>
       <c r="B18">
-        <v>265.017163288269</v>
+        <v>1136.032624526653</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1">
-        <v>44544</v>
+        <v>44565</v>
       </c>
       <c r="B19">
-        <v>273.5845284807777</v>
+        <v>1277.108571363296</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
-        <v>44545</v>
+        <v>44566</v>
       </c>
       <c r="B20">
-        <v>294.1462049427986</v>
+        <v>1404.476733891926</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
-        <v>44546</v>
+        <v>44567</v>
       </c>
       <c r="B21">
-        <v>293.575047263298</v>
+        <v>1475.300286149997</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1">
-        <v>44547</v>
+        <v>44568</v>
       </c>
       <c r="B22">
-        <v>304.9982008533096</v>
+        <v>1643.791801602669</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1">
-        <v>44548</v>
+        <v>44569</v>
       </c>
       <c r="B23">
-        <v>316.9925121228218</v>
+        <v>1690.626731321716</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1">
-        <v>44549</v>
+        <v>44570</v>
       </c>
       <c r="B24">
-        <v>325.5598773153305</v>
+        <v>1836.843097273865</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1">
-        <v>44550</v>
+        <v>44571</v>
       </c>
       <c r="B25">
-        <v>347.2638691363525</v>
+        <v>1914.520541685943</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1">
-        <v>44551</v>
+        <v>44572</v>
       </c>
       <c r="B26">
-        <v>350.1196575338553</v>
+        <v>2057.881119240589</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1">
-        <v>44552</v>
+        <v>44573</v>
       </c>
       <c r="B27">
-        <v>379.2486991883849</v>
+        <v>2128.70467149866</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1">
-        <v>44553</v>
+        <v>44574</v>
       </c>
       <c r="B28">
-        <v>412.3758445994186</v>
+        <v>2186.96275480772</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1">
-        <v>44554</v>
+        <v>44575</v>
       </c>
       <c r="B29">
-        <v>421.5143674714279</v>
+        <v>2315.47323269535</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1">
-        <v>44555</v>
+        <v>44576</v>
       </c>
       <c r="B30">
-        <v>437.5067824974441</v>
+        <v>2353.740797221889</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1">
-        <v>44556</v>
+        <v>44577</v>
       </c>
       <c r="B31">
-        <v>458.068458959465</v>
+        <v>2333.750278439369</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1">
-        <v>44557</v>
+        <v>44578</v>
       </c>
       <c r="B32">
-        <v>515.1842269095229</v>
+        <v>2321.184809490356</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1">
-        <v>44558</v>
+        <v>44579</v>
       </c>
       <c r="B33">
-        <v>605.9982979501151</v>
+        <v>2361.165847055397</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1">
-        <v>44559</v>
+        <v>44580</v>
       </c>
       <c r="B34">
-        <v>689.9584768367005</v>
+        <v>2350.313851144886</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1">
-        <v>44560</v>
+        <v>44581</v>
       </c>
       <c r="B35">
-        <v>799.049593621311</v>
+        <v>2389.723731030426</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1">
-        <v>44561</v>
+        <v>44582</v>
       </c>
       <c r="B36">
-        <v>872.7289342768858</v>
+        <v>2351.456166503887</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1">
-        <v>44562</v>
+        <v>44583</v>
       </c>
       <c r="B37">
-        <v>917.8503909574315</v>
+        <v>2380.014050478916</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1">
-        <v>44563</v>
+        <v>44584</v>
       </c>
       <c r="B38">
-        <v>986.9604701770018</v>
+        <v>2274.921037450809</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1">
-        <v>44564</v>
+        <v>44585</v>
       </c>
       <c r="B39">
-        <v>1136.032624526653</v>
+        <v>2304.050079105338</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1">
-        <v>44565</v>
+        <v>44586</v>
       </c>
       <c r="B40">
-        <v>1277.108571363296</v>
+        <v>2192.674331602725</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1">
-        <v>44566</v>
+        <v>44587</v>
       </c>
       <c r="B41">
-        <v>1404.476733891926</v>
+        <v>2170.399182102203</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1">
-        <v>44567</v>
+        <v>44588</v>
       </c>
       <c r="B42">
-        <v>1475.300286149997</v>
+        <v>2138.414352050171</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1">
-        <v>44568</v>
+        <v>44589</v>
       </c>
       <c r="B43">
-        <v>1643.791801602669</v>
+        <v>2050.456069407081</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1">
-        <v>44569</v>
+        <v>44590</v>
       </c>
       <c r="B44">
-        <v>1690.626731321716</v>
+        <v>2020.184712393551</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1">
-        <v>44570</v>
+        <v>44591</v>
       </c>
       <c r="B45">
-        <v>1836.843097273865</v>
+        <v>2013.901977919044</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1">
-        <v>44571</v>
+        <v>44592</v>
       </c>
       <c r="B46">
-        <v>1914.520541685943</v>
+        <v>1988.199882341518</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1">
-        <v>44572</v>
+        <v>44593</v>
       </c>
       <c r="B47">
-        <v>2057.881119240589</v>
+        <v>1882.535711633911</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1">
-        <v>44573</v>
+        <v>44594</v>
       </c>
       <c r="B48">
-        <v>2128.70467149866</v>
+        <v>1831.131520478859</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1">
-        <v>44574</v>
+        <v>44595</v>
       </c>
       <c r="B49">
-        <v>2186.96275480772</v>
+        <v>1780.869644682808</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1">
-        <v>44575</v>
+        <v>44596</v>
       </c>
       <c r="B50">
-        <v>2315.47323269535</v>
+        <v>1711.188407783737</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1">
-        <v>44576</v>
+        <v>44597</v>
       </c>
       <c r="B51">
-        <v>2353.740797221889</v>
+        <v>1623.230125140648</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1">
-        <v>44577</v>
+        <v>44598</v>
       </c>
       <c r="B52">
-        <v>2333.750278439369</v>
+        <v>1583.249087575607</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1">
-        <v>44578</v>
+        <v>44599</v>
       </c>
       <c r="B53">
-        <v>2321.184809490356</v>
+        <v>1475.871443829498</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1">
-        <v>44579</v>
+        <v>44600</v>
       </c>
       <c r="B54">
-        <v>2361.165847055397</v>
+        <v>1390.768949583912</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1">
-        <v>44580</v>
+        <v>44601</v>
       </c>
       <c r="B55">
-        <v>2350.313851144886</v>
+        <v>1285.675936555805</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1">
-        <v>44581</v>
+        <v>44602</v>
       </c>
       <c r="B56">
-        <v>2389.723731030426</v>
+        <v>1192.00607711771</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1">
-        <v>44582</v>
+        <v>44603</v>
       </c>
       <c r="B57">
-        <v>2351.456166503887</v>
+        <v>1106.332425192623</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1">
-        <v>44583</v>
+        <v>44604</v>
       </c>
       <c r="B58">
-        <v>2380.014050478916</v>
+        <v>1053.214760999069</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1">
-        <v>44584</v>
+        <v>44605</v>
       </c>
       <c r="B59">
-        <v>2274.921037450809</v>
+        <v>1008.664461998024</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1">
-        <v>44585</v>
+        <v>44606</v>
       </c>
       <c r="B60">
-        <v>2304.050079105338</v>
+        <v>901.2868182519147</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1">
-        <v>44586</v>
+        <v>44607</v>
       </c>
       <c r="B61">
-        <v>2192.674331602725</v>
+        <v>839.0306311863516</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1">
-        <v>44587</v>
+        <v>44608</v>
       </c>
       <c r="B62">
-        <v>2170.399182102203</v>
+        <v>759.639713735771</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1">
-        <v>44588</v>
+        <v>44609</v>
       </c>
       <c r="B63">
-        <v>2138.414352050171</v>
+        <v>670.5391157336805</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1">
-        <v>44589</v>
+        <v>44610</v>
       </c>
       <c r="B64">
-        <v>2050.456069407081</v>
+        <v>611.1387170656203</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1">
-        <v>44590</v>
+        <v>44611</v>
       </c>
       <c r="B65">
-        <v>2020.184712393551</v>
+        <v>620.2772399376296</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1">
-        <v>44591</v>
+        <v>44612</v>
       </c>
       <c r="B66">
-        <v>2013.901977919044</v>
+        <v>600.2867211551093</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1">
-        <v>44592</v>
+        <v>44613</v>
       </c>
       <c r="B67">
-        <v>1988.199882341518</v>
+        <v>552.8806337565611</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1">
-        <v>44593</v>
+        <v>44614</v>
       </c>
       <c r="B68">
-        <v>1882.535711633911</v>
+        <v>535.7459033715438</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1">
-        <v>44594</v>
+        <v>44615</v>
       </c>
       <c r="B69">
-        <v>1831.131520478859</v>
+        <v>504.3322309990118</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1">
-        <v>44595</v>
+        <v>44616</v>
       </c>
       <c r="B70">
-        <v>1780.869644682808</v>
+        <v>463.2088780749701</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1">
-        <v>44596</v>
+        <v>44617</v>
       </c>
       <c r="B71">
-        <v>1711.188407783737</v>
+        <v>439.7914132154464</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1">
-        <v>44597</v>
+        <v>44618</v>
       </c>
       <c r="B72">
-        <v>1623.230125140648</v>
+        <v>430.6528903434371</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1">
-        <v>44598</v>
+        <v>44619</v>
       </c>
       <c r="B73">
-        <v>1583.249087575607</v>
+        <v>419.2297367534255</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1">
-        <v>44599</v>
+        <v>44620</v>
       </c>
       <c r="B74">
-        <v>1475.871443829498</v>
+        <v>423.2278405099296</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1">
-        <v>44600</v>
+        <v>44621</v>
       </c>
       <c r="B75">
-        <v>1390.768949583912</v>
+        <v>404.950794765911</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1">
-        <v>44601</v>
+        <v>44622</v>
       </c>
       <c r="B76">
-        <v>1285.675936555805</v>
+        <v>394.6699565349006</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1">
-        <v>44602</v>
+        <v>44623</v>
       </c>
       <c r="B77">
-        <v>1192.00607711771</v>
+        <v>387.8160643808936</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1">
-        <v>44603</v>
+        <v>44624</v>
       </c>
       <c r="B78">
-        <v>1106.332425192623</v>
+        <v>370.1101763163757</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1">
-        <v>44604</v>
+        <v>44625</v>
       </c>
       <c r="B79">
-        <v>1053.214760999069</v>
+        <v>344.9792384183502</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1">
-        <v>44605</v>
+        <v>44626</v>
       </c>
       <c r="B80">
-        <v>1008.664461998024</v>
+        <v>339.2676616233443</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1">
-        <v>44606</v>
+        <v>44627</v>
       </c>
       <c r="B81">
-        <v>901.2868182519147</v>
+        <v>328.4156657128333</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
-        <v>44607</v>
+        <v>44628</v>
       </c>
       <c r="B82">
-        <v>839.0306311863516</v>
+        <v>311.2809353278159</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
-        <v>44608</v>
+        <v>44629</v>
       </c>
       <c r="B83">
-        <v>759.639713735771</v>
+        <v>299.8577817378043</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1">
-        <v>44609</v>
+        <v>44630</v>
       </c>
       <c r="B84">
-        <v>670.5391157336805</v>
+        <v>301.5712547763061</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1">
-        <v>44610</v>
+        <v>44631</v>
       </c>
       <c r="B85">
-        <v>611.1387170656203</v>
+        <v>291.8615742247962</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
-        <v>44611</v>
+        <v>44632</v>
       </c>
       <c r="B86">
-        <v>620.2772399376296</v>
+        <v>295.8596779813003</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
-        <v>44612</v>
+        <v>44633</v>
       </c>
       <c r="B87">
-        <v>600.2867211551093</v>
+        <v>294.1462049427986</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
-        <v>44613</v>
+        <v>44634</v>
       </c>
       <c r="B88">
-        <v>552.8806337565611</v>
+        <v>283.2942090322875</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
-        <v>44614</v>
+        <v>44635</v>
       </c>
       <c r="B89">
-        <v>535.7459033715438</v>
+        <v>280.4384206347846</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
-        <v>44615</v>
+        <v>44636</v>
       </c>
       <c r="B90">
-        <v>504.3322309990118</v>
+        <v>285.5788397502899</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
-        <v>44616</v>
+        <v>44637</v>
       </c>
       <c r="B91">
-        <v>463.2088780749701</v>
+        <v>294.7173626222992</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1">
-        <v>44617</v>
+        <v>44638</v>
       </c>
       <c r="B92">
-        <v>439.7914132154464</v>
+        <v>304.427043173809</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1">
-        <v>44618</v>
+        <v>44639</v>
       </c>
       <c r="B93">
-        <v>430.6528903434371</v>
+        <v>303.2847278148078</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1">
-        <v>44619</v>
+        <v>44640</v>
       </c>
       <c r="B94">
-        <v>419.2297367534255</v>
+        <v>307.8539892508124</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1">
-        <v>44620</v>
+        <v>44641</v>
       </c>
       <c r="B95">
-        <v>423.2278405099296</v>
+        <v>332.9849271488379</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1">
-        <v>44621</v>
+        <v>44642</v>
       </c>
       <c r="B96">
-        <v>404.950794765911</v>
+        <v>346.6927114568519</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
-        <v>44622</v>
+        <v>44643</v>
       </c>
       <c r="B97">
-        <v>394.6699565349006</v>
+        <v>358.6870227263641</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
-        <v>44623</v>
+        <v>44644</v>
       </c>
       <c r="B98">
-        <v>387.8160643808936</v>
+        <v>374.1082800728797</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
-        <v>44624</v>
+        <v>44645</v>
       </c>
       <c r="B99">
-        <v>370.1101763163757</v>
+        <v>379.8198568678855</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
-        <v>44625</v>
+        <v>44646</v>
       </c>
       <c r="B100">
-        <v>344.9792384183502</v>
+        <v>374.1082800728797</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>44626</v>
+        <v>44647</v>
       </c>
       <c r="B101">
-        <v>339.2676616233443</v>
+        <v>374.1082800728797</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>44627</v>
+        <v>44648</v>
       </c>
       <c r="B102">
-        <v>328.4156657128333</v>
+        <v>395.2411142144012</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
-        <v>44628</v>
+        <v>44649</v>
       </c>
       <c r="B103">
-        <v>311.2809353278159</v>
+        <v>388.3872220603943</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
-        <v>44629</v>
+        <v>44650</v>
       </c>
       <c r="B104">
-        <v>299.8577817378043</v>
+        <v>397.5257449324035</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
-        <v>44630</v>
+        <v>44651</v>
       </c>
       <c r="B105">
-        <v>301.5712547763061</v>
+        <v>390.6718527783965</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
-        <v>44631</v>
+        <v>44652</v>
       </c>
       <c r="B106">
-        <v>291.8615742247962</v>
+        <v>380.9621722268867</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
-        <v>44632</v>
+        <v>44653</v>
       </c>
       <c r="B107">
-        <v>295.8596779813003</v>
+        <v>380.9621722268867</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
-        <v>44633</v>
+        <v>44654</v>
       </c>
       <c r="B108">
-        <v>294.1462049427986</v>
+        <v>378.1063838293838</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
-        <v>44634</v>
+        <v>44655</v>
       </c>
       <c r="B109">
-        <v>283.2942090322875</v>
+        <v>366.1120725598716</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
-        <v>44635</v>
+        <v>44656</v>
       </c>
       <c r="B110">
-        <v>280.4384206347846</v>
+        <v>361.542811123867</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
-        <v>44636</v>
+        <v>44657</v>
       </c>
       <c r="B111">
-        <v>285.5788397502899</v>
+        <v>362.6851264828681</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
-        <v>44637</v>
+        <v>44658</v>
       </c>
       <c r="B112">
-        <v>294.7173626222992</v>
+        <v>342.6946077003478</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>44638</v>
+        <v>44659</v>
       </c>
       <c r="B113">
-        <v>304.427043173809</v>
+        <v>377.5352261498832</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>44639</v>
+        <v>44660</v>
       </c>
       <c r="B114">
-        <v>303.2847278148078</v>
+        <v>396.3834295734024</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>44640</v>
+        <v>44661</v>
       </c>
       <c r="B115">
-        <v>307.8539892508124</v>
+        <v>410.0912138814163</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>44641</v>
+        <v>44662</v>
       </c>
       <c r="B116">
-        <v>332.9849271488379</v>
+        <v>444.360674651451</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>44642</v>
+        <v>44663</v>
       </c>
       <c r="B117">
-        <v>346.6927114568519</v>
+        <v>487.7686582934951</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>44643</v>
+        <v>44664</v>
       </c>
       <c r="B118">
-        <v>358.6870227263641</v>
+        <v>506.0457040375136</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>44644</v>
+        <v>44665</v>
       </c>
       <c r="B119">
-        <v>374.1082800728797</v>
+        <v>532.8901149740409</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>44645</v>
+        <v>44666</v>
       </c>
       <c r="B120">
-        <v>379.8198568678855</v>
+        <v>556.8787375130653</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>44646</v>
+        <v>44667</v>
       </c>
       <c r="B121">
-        <v>374.1082800728797</v>
+        <v>578.5827293340873</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>44647</v>
+        <v>44668</v>
       </c>
       <c r="B122">
-        <v>374.1082800728797</v>
+        <v>612.8521901041221</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>44648</v>
+        <v>44669</v>
       </c>
       <c r="B123">
-        <v>395.2411142144012</v>
+        <v>671.6814310926818</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>44649</v>
+        <v>44670</v>
       </c>
       <c r="B124">
-        <v>388.3872220603943</v>
+        <v>708.8066802602194</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>44650</v>
+        <v>44671</v>
       </c>
       <c r="B125">
-        <v>397.5257449324035</v>
+        <v>761.3531867742728</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>44651</v>
+        <v>44672</v>
       </c>
       <c r="B126">
-        <v>390.6718527783965</v>
+        <v>823.6093738398359</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>44652</v>
+        <v>44673</v>
       </c>
       <c r="B127">
-        <v>380.9621722268867</v>
+        <v>859.021149968872</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>44653</v>
+        <v>44674</v>
       </c>
       <c r="B128">
-        <v>380.9621722268867</v>
+        <v>875.0135649948882</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>44654</v>
+        <v>44675</v>
       </c>
       <c r="B129">
-        <v>378.1063838293838</v>
+        <v>903.0002912904166</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>44655</v>
+        <v>44676</v>
       </c>
       <c r="B130">
-        <v>366.1120725598716</v>
+        <v>965.8276360354804</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>44656</v>
+        <v>44677</v>
       </c>
       <c r="B131">
-        <v>361.542811123867</v>
+        <v>1012.662565754528</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>44657</v>
+        <v>44678</v>
       </c>
       <c r="B132">
-        <v>362.6851264828681</v>
+        <v>1081.772644974098</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>44658</v>
+        <v>44679</v>
       </c>
       <c r="B133">
-        <v>342.6946077003478</v>
+        <v>1143.457674360161</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>44659</v>
+        <v>44680</v>
       </c>
       <c r="B134">
-        <v>377.5352261498832</v>
+        <v>1207.427334464226</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>44660</v>
+        <v>44681</v>
       </c>
       <c r="B135">
-        <v>396.3834295734024</v>
+        <v>1238.269849157257</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>44661</v>
+        <v>44682</v>
       </c>
       <c r="B136">
-        <v>410.0912138814163</v>
+        <v>1246.837214349765</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>44662</v>
+        <v>44683</v>
       </c>
       <c r="B137">
-        <v>444.360674651451</v>
+        <v>1281.1066751198</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>44663</v>
+        <v>44684</v>
       </c>
       <c r="B138">
-        <v>487.7686582934951</v>
+        <v>1326.228131800346</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>44664</v>
+        <v>44685</v>
       </c>
       <c r="B139">
-        <v>506.0457040375136</v>
+        <v>1362.782223288383</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>44665</v>
+        <v>44686</v>
       </c>
       <c r="B140">
-        <v>532.8901149740409</v>
+        <v>1418.184518199939</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>44666</v>
+        <v>44687</v>
       </c>
       <c r="B141">
-        <v>556.8787375130653</v>
+        <v>1439.888510020962</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>44667</v>
+        <v>44688</v>
       </c>
       <c r="B142">
-        <v>578.5827293340873</v>
+        <v>1442.744298418465</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>44668</v>
+        <v>44689</v>
       </c>
       <c r="B143">
-        <v>612.8521901041221</v>
+        <v>1440.459667700462</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>44669</v>
+        <v>44690</v>
       </c>
       <c r="B144">
-        <v>671.6814310926818</v>
+        <v>1456.452082726478</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>44670</v>
+        <v>44691</v>
       </c>
       <c r="B145">
-        <v>708.8066802602194</v>
+        <v>1474.157970790996</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>44671</v>
+        <v>44692</v>
       </c>
       <c r="B146">
-        <v>761.3531867742728</v>
+        <v>1455.309767367477</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>44672</v>
+        <v>44693</v>
       </c>
       <c r="B147">
-        <v>823.6093738398359</v>
+        <v>1459.879028803482</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>44673</v>
+        <v>44694</v>
       </c>
       <c r="B148">
-        <v>859.021149968872</v>
+        <v>1441.601983059463</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>44674</v>
+        <v>44695</v>
       </c>
       <c r="B149">
-        <v>875.0135649948882</v>
+        <v>1424.467252674446</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>44675</v>
+        <v>44696</v>
       </c>
       <c r="B150">
-        <v>903.0002912904166</v>
+        <v>1402.763260853424</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/actualizacion_protocolo/incidencia14.xlsx
+++ b/data/input/actualizacion_protocolo/incidencia14.xlsx
@@ -377,1194 +377,1194 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>44548</v>
+        <v>44569</v>
       </c>
       <c r="B2">
-        <v>316.9925121228218</v>
+        <v>1690.626731321716</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>44549</v>
+        <v>44570</v>
       </c>
       <c r="B3">
-        <v>325.5598773153305</v>
+        <v>1836.843097273865</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>44550</v>
+        <v>44571</v>
       </c>
       <c r="B4">
-        <v>347.2638691363525</v>
+        <v>1914.520541685943</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>44551</v>
+        <v>44572</v>
       </c>
       <c r="B5">
-        <v>350.1196575338553</v>
+        <v>2057.881119240589</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>44552</v>
+        <v>44573</v>
       </c>
       <c r="B6">
-        <v>379.2486991883849</v>
+        <v>2128.70467149866</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>44553</v>
+        <v>44574</v>
       </c>
       <c r="B7">
-        <v>412.3758445994186</v>
+        <v>2186.96275480772</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>44554</v>
+        <v>44575</v>
       </c>
       <c r="B8">
-        <v>421.5143674714279</v>
+        <v>2315.47323269535</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>44555</v>
+        <v>44576</v>
       </c>
       <c r="B9">
-        <v>437.5067824974441</v>
+        <v>2353.740797221889</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>44556</v>
+        <v>44577</v>
       </c>
       <c r="B10">
-        <v>458.068458959465</v>
+        <v>2333.750278439369</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
-        <v>44557</v>
+        <v>44578</v>
       </c>
       <c r="B11">
-        <v>515.1842269095229</v>
+        <v>2321.184809490356</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
-        <v>44558</v>
+        <v>44579</v>
       </c>
       <c r="B12">
-        <v>605.9982979501151</v>
+        <v>2361.165847055397</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
-        <v>44559</v>
+        <v>44580</v>
       </c>
       <c r="B13">
-        <v>689.9584768367005</v>
+        <v>2350.313851144886</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
-        <v>44560</v>
+        <v>44581</v>
       </c>
       <c r="B14">
-        <v>799.049593621311</v>
+        <v>2389.723731030426</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1">
-        <v>44561</v>
+        <v>44582</v>
       </c>
       <c r="B15">
-        <v>872.7289342768858</v>
+        <v>2351.456166503887</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1">
-        <v>44562</v>
+        <v>44583</v>
       </c>
       <c r="B16">
-        <v>917.8503909574315</v>
+        <v>2380.014050478916</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
-        <v>44563</v>
+        <v>44584</v>
       </c>
       <c r="B17">
-        <v>986.9604701770018</v>
+        <v>2274.921037450809</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1">
-        <v>44564</v>
+        <v>44585</v>
       </c>
       <c r="B18">
-        <v>1136.032624526653</v>
+        <v>2304.050079105338</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1">
-        <v>44565</v>
+        <v>44586</v>
       </c>
       <c r="B19">
-        <v>1277.108571363296</v>
+        <v>2192.674331602725</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
-        <v>44566</v>
+        <v>44587</v>
       </c>
       <c r="B20">
-        <v>1404.476733891926</v>
+        <v>2170.399182102203</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
-        <v>44567</v>
+        <v>44588</v>
       </c>
       <c r="B21">
-        <v>1475.300286149997</v>
+        <v>2138.414352050171</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1">
-        <v>44568</v>
+        <v>44589</v>
       </c>
       <c r="B22">
-        <v>1643.791801602669</v>
+        <v>2050.456069407081</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1">
-        <v>44569</v>
+        <v>44590</v>
       </c>
       <c r="B23">
-        <v>1690.626731321716</v>
+        <v>2020.184712393551</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1">
-        <v>44570</v>
+        <v>44591</v>
       </c>
       <c r="B24">
-        <v>1836.843097273865</v>
+        <v>2013.901977919044</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1">
-        <v>44571</v>
+        <v>44592</v>
       </c>
       <c r="B25">
-        <v>1914.520541685943</v>
+        <v>1988.199882341518</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1">
-        <v>44572</v>
+        <v>44593</v>
       </c>
       <c r="B26">
-        <v>2057.881119240589</v>
+        <v>1882.535711633911</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1">
-        <v>44573</v>
+        <v>44594</v>
       </c>
       <c r="B27">
-        <v>2128.70467149866</v>
+        <v>1831.131520478859</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1">
-        <v>44574</v>
+        <v>44595</v>
       </c>
       <c r="B28">
-        <v>2186.96275480772</v>
+        <v>1780.869644682808</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1">
-        <v>44575</v>
+        <v>44596</v>
       </c>
       <c r="B29">
-        <v>2315.47323269535</v>
+        <v>1711.188407783737</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1">
-        <v>44576</v>
+        <v>44597</v>
       </c>
       <c r="B30">
-        <v>2353.740797221889</v>
+        <v>1623.230125140648</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1">
-        <v>44577</v>
+        <v>44598</v>
       </c>
       <c r="B31">
-        <v>2333.750278439369</v>
+        <v>1583.249087575607</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1">
-        <v>44578</v>
+        <v>44599</v>
       </c>
       <c r="B32">
-        <v>2321.184809490356</v>
+        <v>1475.871443829498</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1">
-        <v>44579</v>
+        <v>44600</v>
       </c>
       <c r="B33">
-        <v>2361.165847055397</v>
+        <v>1390.768949583912</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1">
-        <v>44580</v>
+        <v>44601</v>
       </c>
       <c r="B34">
-        <v>2350.313851144886</v>
+        <v>1285.675936555805</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1">
-        <v>44581</v>
+        <v>44602</v>
       </c>
       <c r="B35">
-        <v>2389.723731030426</v>
+        <v>1192.00607711771</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1">
-        <v>44582</v>
+        <v>44603</v>
       </c>
       <c r="B36">
-        <v>2351.456166503887</v>
+        <v>1106.332425192623</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1">
-        <v>44583</v>
+        <v>44604</v>
       </c>
       <c r="B37">
-        <v>2380.014050478916</v>
+        <v>1053.214760999069</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1">
-        <v>44584</v>
+        <v>44605</v>
       </c>
       <c r="B38">
-        <v>2274.921037450809</v>
+        <v>1008.664461998024</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1">
-        <v>44585</v>
+        <v>44606</v>
       </c>
       <c r="B39">
-        <v>2304.050079105338</v>
+        <v>901.2868182519147</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1">
-        <v>44586</v>
+        <v>44607</v>
       </c>
       <c r="B40">
-        <v>2192.674331602725</v>
+        <v>839.0306311863516</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1">
-        <v>44587</v>
+        <v>44608</v>
       </c>
       <c r="B41">
-        <v>2170.399182102203</v>
+        <v>759.639713735771</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1">
-        <v>44588</v>
+        <v>44609</v>
       </c>
       <c r="B42">
-        <v>2138.414352050171</v>
+        <v>670.5391157336805</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1">
-        <v>44589</v>
+        <v>44610</v>
       </c>
       <c r="B43">
-        <v>2050.456069407081</v>
+        <v>611.1387170656203</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1">
-        <v>44590</v>
+        <v>44611</v>
       </c>
       <c r="B44">
-        <v>2020.184712393551</v>
+        <v>620.2772399376296</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1">
-        <v>44591</v>
+        <v>44612</v>
       </c>
       <c r="B45">
-        <v>2013.901977919044</v>
+        <v>600.2867211551093</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1">
-        <v>44592</v>
+        <v>44613</v>
       </c>
       <c r="B46">
-        <v>1988.199882341518</v>
+        <v>552.8806337565611</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1">
-        <v>44593</v>
+        <v>44614</v>
       </c>
       <c r="B47">
-        <v>1882.535711633911</v>
+        <v>535.7459033715438</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1">
-        <v>44594</v>
+        <v>44615</v>
       </c>
       <c r="B48">
-        <v>1831.131520478859</v>
+        <v>504.3322309990118</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1">
-        <v>44595</v>
+        <v>44616</v>
       </c>
       <c r="B49">
-        <v>1780.869644682808</v>
+        <v>463.2088780749701</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1">
-        <v>44596</v>
+        <v>44617</v>
       </c>
       <c r="B50">
-        <v>1711.188407783737</v>
+        <v>439.7914132154464</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1">
-        <v>44597</v>
+        <v>44618</v>
       </c>
       <c r="B51">
-        <v>1623.230125140648</v>
+        <v>430.6528903434371</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1">
-        <v>44598</v>
+        <v>44619</v>
       </c>
       <c r="B52">
-        <v>1583.249087575607</v>
+        <v>419.2297367534255</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1">
-        <v>44599</v>
+        <v>44620</v>
       </c>
       <c r="B53">
-        <v>1475.871443829498</v>
+        <v>423.2278405099296</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1">
-        <v>44600</v>
+        <v>44621</v>
       </c>
       <c r="B54">
-        <v>1390.768949583912</v>
+        <v>404.950794765911</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1">
-        <v>44601</v>
+        <v>44622</v>
       </c>
       <c r="B55">
-        <v>1285.675936555805</v>
+        <v>394.6699565349006</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1">
-        <v>44602</v>
+        <v>44623</v>
       </c>
       <c r="B56">
-        <v>1192.00607711771</v>
+        <v>387.8160643808936</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1">
-        <v>44603</v>
+        <v>44624</v>
       </c>
       <c r="B57">
-        <v>1106.332425192623</v>
+        <v>370.1101763163757</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1">
-        <v>44604</v>
+        <v>44625</v>
       </c>
       <c r="B58">
-        <v>1053.214760999069</v>
+        <v>344.9792384183502</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1">
-        <v>44605</v>
+        <v>44626</v>
       </c>
       <c r="B59">
-        <v>1008.664461998024</v>
+        <v>339.2676616233443</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1">
-        <v>44606</v>
+        <v>44627</v>
       </c>
       <c r="B60">
-        <v>901.2868182519147</v>
+        <v>328.4156657128333</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1">
-        <v>44607</v>
+        <v>44628</v>
       </c>
       <c r="B61">
-        <v>839.0306311863516</v>
+        <v>311.2809353278159</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1">
-        <v>44608</v>
+        <v>44629</v>
       </c>
       <c r="B62">
-        <v>759.639713735771</v>
+        <v>299.8577817378043</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1">
-        <v>44609</v>
+        <v>44630</v>
       </c>
       <c r="B63">
-        <v>670.5391157336805</v>
+        <v>301.5712547763061</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1">
-        <v>44610</v>
+        <v>44631</v>
       </c>
       <c r="B64">
-        <v>611.1387170656203</v>
+        <v>291.8615742247962</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1">
-        <v>44611</v>
+        <v>44632</v>
       </c>
       <c r="B65">
-        <v>620.2772399376296</v>
+        <v>295.8596779813003</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1">
-        <v>44612</v>
+        <v>44633</v>
       </c>
       <c r="B66">
-        <v>600.2867211551093</v>
+        <v>294.1462049427986</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1">
-        <v>44613</v>
+        <v>44634</v>
       </c>
       <c r="B67">
-        <v>552.8806337565611</v>
+        <v>283.2942090322875</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1">
-        <v>44614</v>
+        <v>44635</v>
       </c>
       <c r="B68">
-        <v>535.7459033715438</v>
+        <v>280.4384206347846</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1">
-        <v>44615</v>
+        <v>44636</v>
       </c>
       <c r="B69">
-        <v>504.3322309990118</v>
+        <v>285.5788397502899</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1">
-        <v>44616</v>
+        <v>44637</v>
       </c>
       <c r="B70">
-        <v>463.2088780749701</v>
+        <v>294.7173626222992</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1">
-        <v>44617</v>
+        <v>44638</v>
       </c>
       <c r="B71">
-        <v>439.7914132154464</v>
+        <v>304.427043173809</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1">
-        <v>44618</v>
+        <v>44639</v>
       </c>
       <c r="B72">
-        <v>430.6528903434371</v>
+        <v>303.2847278148078</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1">
-        <v>44619</v>
+        <v>44640</v>
       </c>
       <c r="B73">
-        <v>419.2297367534255</v>
+        <v>307.8539892508124</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1">
-        <v>44620</v>
+        <v>44641</v>
       </c>
       <c r="B74">
-        <v>423.2278405099296</v>
+        <v>332.9849271488379</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1">
-        <v>44621</v>
+        <v>44642</v>
       </c>
       <c r="B75">
-        <v>404.950794765911</v>
+        <v>346.6927114568519</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1">
-        <v>44622</v>
+        <v>44643</v>
       </c>
       <c r="B76">
-        <v>394.6699565349006</v>
+        <v>358.6870227263641</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1">
-        <v>44623</v>
+        <v>44644</v>
       </c>
       <c r="B77">
-        <v>387.8160643808936</v>
+        <v>374.1082800728797</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1">
-        <v>44624</v>
+        <v>44645</v>
       </c>
       <c r="B78">
-        <v>370.1101763163757</v>
+        <v>379.8198568678855</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1">
-        <v>44625</v>
+        <v>44646</v>
       </c>
       <c r="B79">
-        <v>344.9792384183502</v>
+        <v>374.1082800728797</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1">
-        <v>44626</v>
+        <v>44647</v>
       </c>
       <c r="B80">
-        <v>339.2676616233443</v>
+        <v>374.1082800728797</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1">
-        <v>44627</v>
+        <v>44648</v>
       </c>
       <c r="B81">
-        <v>328.4156657128333</v>
+        <v>395.2411142144012</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
-        <v>44628</v>
+        <v>44649</v>
       </c>
       <c r="B82">
-        <v>311.2809353278159</v>
+        <v>388.3872220603943</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
-        <v>44629</v>
+        <v>44650</v>
       </c>
       <c r="B83">
-        <v>299.8577817378043</v>
+        <v>397.5257449324035</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1">
-        <v>44630</v>
+        <v>44651</v>
       </c>
       <c r="B84">
-        <v>301.5712547763061</v>
+        <v>390.6718527783965</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1">
-        <v>44631</v>
+        <v>44652</v>
       </c>
       <c r="B85">
-        <v>291.8615742247962</v>
+        <v>380.9621722268867</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
-        <v>44632</v>
+        <v>44653</v>
       </c>
       <c r="B86">
-        <v>295.8596779813003</v>
+        <v>380.9621722268867</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
-        <v>44633</v>
+        <v>44654</v>
       </c>
       <c r="B87">
-        <v>294.1462049427986</v>
+        <v>378.1063838293838</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
-        <v>44634</v>
+        <v>44655</v>
       </c>
       <c r="B88">
-        <v>283.2942090322875</v>
+        <v>366.1120725598716</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
-        <v>44635</v>
+        <v>44656</v>
       </c>
       <c r="B89">
-        <v>280.4384206347846</v>
+        <v>361.542811123867</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
-        <v>44636</v>
+        <v>44657</v>
       </c>
       <c r="B90">
-        <v>285.5788397502899</v>
+        <v>362.6851264828681</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
-        <v>44637</v>
+        <v>44658</v>
       </c>
       <c r="B91">
-        <v>294.7173626222992</v>
+        <v>342.6946077003478</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1">
-        <v>44638</v>
+        <v>44659</v>
       </c>
       <c r="B92">
-        <v>304.427043173809</v>
+        <v>377.5352261498832</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1">
-        <v>44639</v>
+        <v>44660</v>
       </c>
       <c r="B93">
-        <v>303.2847278148078</v>
+        <v>396.3834295734024</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1">
-        <v>44640</v>
+        <v>44661</v>
       </c>
       <c r="B94">
-        <v>307.8539892508124</v>
+        <v>410.0912138814163</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1">
-        <v>44641</v>
+        <v>44662</v>
       </c>
       <c r="B95">
-        <v>332.9849271488379</v>
+        <v>444.360674651451</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1">
-        <v>44642</v>
+        <v>44663</v>
       </c>
       <c r="B96">
-        <v>346.6927114568519</v>
+        <v>487.7686582934951</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
-        <v>44643</v>
+        <v>44664</v>
       </c>
       <c r="B97">
-        <v>358.6870227263641</v>
+        <v>506.0457040375136</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
-        <v>44644</v>
+        <v>44665</v>
       </c>
       <c r="B98">
-        <v>374.1082800728797</v>
+        <v>532.8901149740409</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
-        <v>44645</v>
+        <v>44666</v>
       </c>
       <c r="B99">
-        <v>379.8198568678855</v>
+        <v>556.8787375130653</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
-        <v>44646</v>
+        <v>44667</v>
       </c>
       <c r="B100">
-        <v>374.1082800728797</v>
+        <v>578.5827293340873</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>44647</v>
+        <v>44668</v>
       </c>
       <c r="B101">
-        <v>374.1082800728797</v>
+        <v>612.8521901041221</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>44648</v>
+        <v>44669</v>
       </c>
       <c r="B102">
-        <v>395.2411142144012</v>
+        <v>671.6814310926818</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
-        <v>44649</v>
+        <v>44670</v>
       </c>
       <c r="B103">
-        <v>388.3872220603943</v>
+        <v>708.8066802602194</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
-        <v>44650</v>
+        <v>44671</v>
       </c>
       <c r="B104">
-        <v>397.5257449324035</v>
+        <v>761.3531867742728</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
-        <v>44651</v>
+        <v>44672</v>
       </c>
       <c r="B105">
-        <v>390.6718527783965</v>
+        <v>823.6093738398359</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
-        <v>44652</v>
+        <v>44673</v>
       </c>
       <c r="B106">
-        <v>380.9621722268867</v>
+        <v>859.021149968872</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
-        <v>44653</v>
+        <v>44674</v>
       </c>
       <c r="B107">
-        <v>380.9621722268867</v>
+        <v>875.0135649948882</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
-        <v>44654</v>
+        <v>44675</v>
       </c>
       <c r="B108">
-        <v>378.1063838293838</v>
+        <v>903.0002912904166</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
-        <v>44655</v>
+        <v>44676</v>
       </c>
       <c r="B109">
-        <v>366.1120725598716</v>
+        <v>965.8276360354804</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
-        <v>44656</v>
+        <v>44677</v>
       </c>
       <c r="B110">
-        <v>361.542811123867</v>
+        <v>1012.662565754528</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
-        <v>44657</v>
+        <v>44678</v>
       </c>
       <c r="B111">
-        <v>362.6851264828681</v>
+        <v>1081.772644974098</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
-        <v>44658</v>
+        <v>44679</v>
       </c>
       <c r="B112">
-        <v>342.6946077003478</v>
+        <v>1143.457674360161</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>44659</v>
+        <v>44680</v>
       </c>
       <c r="B113">
-        <v>377.5352261498832</v>
+        <v>1207.427334464226</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>44660</v>
+        <v>44681</v>
       </c>
       <c r="B114">
-        <v>396.3834295734024</v>
+        <v>1238.269849157257</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>44661</v>
+        <v>44682</v>
       </c>
       <c r="B115">
-        <v>410.0912138814163</v>
+        <v>1246.837214349765</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>44662</v>
+        <v>44683</v>
       </c>
       <c r="B116">
-        <v>444.360674651451</v>
+        <v>1281.1066751198</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>44663</v>
+        <v>44684</v>
       </c>
       <c r="B117">
-        <v>487.7686582934951</v>
+        <v>1326.228131800346</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>44664</v>
+        <v>44685</v>
       </c>
       <c r="B118">
-        <v>506.0457040375136</v>
+        <v>1362.782223288383</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>44665</v>
+        <v>44686</v>
       </c>
       <c r="B119">
-        <v>532.8901149740409</v>
+        <v>1418.184518199939</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>44666</v>
+        <v>44687</v>
       </c>
       <c r="B120">
-        <v>556.8787375130653</v>
+        <v>1439.888510020962</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>44667</v>
+        <v>44688</v>
       </c>
       <c r="B121">
-        <v>578.5827293340873</v>
+        <v>1442.744298418465</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>44668</v>
+        <v>44689</v>
       </c>
       <c r="B122">
-        <v>612.8521901041221</v>
+        <v>1440.459667700462</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>44669</v>
+        <v>44690</v>
       </c>
       <c r="B123">
-        <v>671.6814310926818</v>
+        <v>1456.452082726478</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>44670</v>
+        <v>44691</v>
       </c>
       <c r="B124">
-        <v>708.8066802602194</v>
+        <v>1474.157970790996</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>44671</v>
+        <v>44692</v>
       </c>
       <c r="B125">
-        <v>761.3531867742728</v>
+        <v>1455.309767367477</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>44672</v>
+        <v>44693</v>
       </c>
       <c r="B126">
-        <v>823.6093738398359</v>
+        <v>1459.879028803482</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>44673</v>
+        <v>44694</v>
       </c>
       <c r="B127">
-        <v>859.021149968872</v>
+        <v>1441.601983059463</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>44674</v>
+        <v>44695</v>
       </c>
       <c r="B128">
-        <v>875.0135649948882</v>
+        <v>1424.467252674446</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>44675</v>
+        <v>44696</v>
       </c>
       <c r="B129">
-        <v>903.0002912904166</v>
+        <v>1402.763260853424</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>44676</v>
+        <v>44697</v>
       </c>
       <c r="B130">
-        <v>965.8276360354804</v>
+        <v>1394.767053340416</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>44677</v>
+        <v>44698</v>
       </c>
       <c r="B131">
-        <v>1012.662565754528</v>
+        <v>1364.495696326885</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>44678</v>
+        <v>44699</v>
       </c>
       <c r="B132">
-        <v>1081.772644974098</v>
+        <v>1319.94539732584</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>44679</v>
+        <v>44700</v>
       </c>
       <c r="B133">
-        <v>1143.457674360161</v>
+        <v>1265.114260093784</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>44680</v>
+        <v>44701</v>
       </c>
       <c r="B134">
-        <v>1207.427334464226</v>
+        <v>1229.131326285247</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>44681</v>
+        <v>44702</v>
       </c>
       <c r="B135">
-        <v>1238.269849157257</v>
+        <v>1209.711965182228</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>44682</v>
+        <v>44703</v>
       </c>
       <c r="B136">
-        <v>1246.837214349765</v>
+        <v>1195.433023194713</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>44683</v>
+        <v>44704</v>
       </c>
       <c r="B137">
-        <v>1281.1066751198</v>
+        <v>1117.184421103134</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>44684</v>
+        <v>44705</v>
       </c>
       <c r="B138">
-        <v>1326.228131800346</v>
+        <v>1065.209072268581</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>44685</v>
+        <v>44706</v>
       </c>
       <c r="B139">
-        <v>1362.782223288383</v>
+        <v>1015.518354152031</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>44686</v>
+        <v>44707</v>
       </c>
       <c r="B140">
-        <v>1418.184518199939</v>
+        <v>962.4006899584768</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>44687</v>
+        <v>44708</v>
       </c>
       <c r="B141">
-        <v>1439.888510020962</v>
+        <v>941.8390134964559</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>44688</v>
+        <v>44709</v>
       </c>
       <c r="B142">
-        <v>1442.744298418465</v>
+        <v>910.425341123924</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>44689</v>
+        <v>44710</v>
       </c>
       <c r="B143">
-        <v>1440.459667700462</v>
+        <v>898.4310298544119</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>44690</v>
+        <v>44711</v>
       </c>
       <c r="B144">
-        <v>1456.452082726478</v>
+        <v>849.3114694173621</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>44691</v>
+        <v>44712</v>
       </c>
       <c r="B145">
-        <v>1474.157970790996</v>
+        <v>810.4727472113226</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>44692</v>
+        <v>44713</v>
       </c>
       <c r="B146">
-        <v>1455.309767367477</v>
+        <v>773.347498043785</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>44693</v>
+        <v>44714</v>
       </c>
       <c r="B147">
-        <v>1459.879028803482</v>
+        <v>751.643506222763</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>44694</v>
+        <v>44715</v>
       </c>
       <c r="B148">
-        <v>1441.601983059463</v>
+        <v>717.3740454527282</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>44695</v>
+        <v>44716</v>
       </c>
       <c r="B149">
-        <v>1424.467252674446</v>
+        <v>709.9489956192206</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>44696</v>
+        <v>44717</v>
       </c>
       <c r="B150">
-        <v>1402.763260853424</v>
+        <v>692.8142652342032</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/actualizacion_protocolo/incidencia14.xlsx
+++ b/data/input/actualizacion_protocolo/incidencia14.xlsx
@@ -377,1194 +377,1194 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>44569</v>
+        <v>44614</v>
       </c>
       <c r="B2">
-        <v>1690.626731321716</v>
+        <v>535.7459033715438</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>44570</v>
+        <v>44615</v>
       </c>
       <c r="B3">
-        <v>1836.843097273865</v>
+        <v>504.3322309990118</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>44571</v>
+        <v>44616</v>
       </c>
       <c r="B4">
-        <v>1914.520541685943</v>
+        <v>463.2088780749701</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>44572</v>
+        <v>44617</v>
       </c>
       <c r="B5">
-        <v>2057.881119240589</v>
+        <v>439.7914132154464</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>44573</v>
+        <v>44618</v>
       </c>
       <c r="B6">
-        <v>2128.70467149866</v>
+        <v>430.6528903434371</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>44574</v>
+        <v>44619</v>
       </c>
       <c r="B7">
-        <v>2186.96275480772</v>
+        <v>419.2297367534255</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>44575</v>
+        <v>44620</v>
       </c>
       <c r="B8">
-        <v>2315.47323269535</v>
+        <v>423.2278405099296</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>44576</v>
+        <v>44621</v>
       </c>
       <c r="B9">
-        <v>2353.740797221889</v>
+        <v>404.950794765911</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>44577</v>
+        <v>44622</v>
       </c>
       <c r="B10">
-        <v>2333.750278439369</v>
+        <v>394.6699565349006</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
-        <v>44578</v>
+        <v>44623</v>
       </c>
       <c r="B11">
-        <v>2321.184809490356</v>
+        <v>387.8160643808936</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
-        <v>44579</v>
+        <v>44624</v>
       </c>
       <c r="B12">
-        <v>2361.165847055397</v>
+        <v>370.1101763163757</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
-        <v>44580</v>
+        <v>44625</v>
       </c>
       <c r="B13">
-        <v>2350.313851144886</v>
+        <v>344.9792384183502</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
-        <v>44581</v>
+        <v>44626</v>
       </c>
       <c r="B14">
-        <v>2389.723731030426</v>
+        <v>339.2676616233443</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1">
-        <v>44582</v>
+        <v>44627</v>
       </c>
       <c r="B15">
-        <v>2351.456166503887</v>
+        <v>328.4156657128333</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1">
-        <v>44583</v>
+        <v>44628</v>
       </c>
       <c r="B16">
-        <v>2380.014050478916</v>
+        <v>311.2809353278159</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
-        <v>44584</v>
+        <v>44629</v>
       </c>
       <c r="B17">
-        <v>2274.921037450809</v>
+        <v>299.8577817378043</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1">
-        <v>44585</v>
+        <v>44630</v>
       </c>
       <c r="B18">
-        <v>2304.050079105338</v>
+        <v>301.5712547763061</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1">
-        <v>44586</v>
+        <v>44631</v>
       </c>
       <c r="B19">
-        <v>2192.674331602725</v>
+        <v>291.8615742247962</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
-        <v>44587</v>
+        <v>44632</v>
       </c>
       <c r="B20">
-        <v>2170.399182102203</v>
+        <v>295.8596779813003</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
-        <v>44588</v>
+        <v>44633</v>
       </c>
       <c r="B21">
-        <v>2138.414352050171</v>
+        <v>294.1462049427986</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1">
-        <v>44589</v>
+        <v>44634</v>
       </c>
       <c r="B22">
-        <v>2050.456069407081</v>
+        <v>283.2942090322875</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1">
-        <v>44590</v>
+        <v>44635</v>
       </c>
       <c r="B23">
-        <v>2020.184712393551</v>
+        <v>280.4384206347846</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1">
-        <v>44591</v>
+        <v>44636</v>
       </c>
       <c r="B24">
-        <v>2013.901977919044</v>
+        <v>285.5788397502899</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1">
-        <v>44592</v>
+        <v>44637</v>
       </c>
       <c r="B25">
-        <v>1988.199882341518</v>
+        <v>294.7173626222992</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1">
-        <v>44593</v>
+        <v>44638</v>
       </c>
       <c r="B26">
-        <v>1882.535711633911</v>
+        <v>304.427043173809</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1">
-        <v>44594</v>
+        <v>44639</v>
       </c>
       <c r="B27">
-        <v>1831.131520478859</v>
+        <v>303.2847278148078</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1">
-        <v>44595</v>
+        <v>44640</v>
       </c>
       <c r="B28">
-        <v>1780.869644682808</v>
+        <v>307.8539892508124</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1">
-        <v>44596</v>
+        <v>44641</v>
       </c>
       <c r="B29">
-        <v>1711.188407783737</v>
+        <v>332.9849271488379</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1">
-        <v>44597</v>
+        <v>44642</v>
       </c>
       <c r="B30">
-        <v>1623.230125140648</v>
+        <v>346.6927114568519</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1">
-        <v>44598</v>
+        <v>44643</v>
       </c>
       <c r="B31">
-        <v>1583.249087575607</v>
+        <v>358.6870227263641</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1">
-        <v>44599</v>
+        <v>44644</v>
       </c>
       <c r="B32">
-        <v>1475.871443829498</v>
+        <v>374.1082800728797</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1">
-        <v>44600</v>
+        <v>44645</v>
       </c>
       <c r="B33">
-        <v>1390.768949583912</v>
+        <v>379.8198568678855</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1">
-        <v>44601</v>
+        <v>44646</v>
       </c>
       <c r="B34">
-        <v>1285.675936555805</v>
+        <v>374.1082800728797</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1">
-        <v>44602</v>
+        <v>44647</v>
       </c>
       <c r="B35">
-        <v>1192.00607711771</v>
+        <v>374.1082800728797</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1">
-        <v>44603</v>
+        <v>44648</v>
       </c>
       <c r="B36">
-        <v>1106.332425192623</v>
+        <v>395.2411142144012</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1">
-        <v>44604</v>
+        <v>44649</v>
       </c>
       <c r="B37">
-        <v>1053.214760999069</v>
+        <v>388.3872220603943</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1">
-        <v>44605</v>
+        <v>44650</v>
       </c>
       <c r="B38">
-        <v>1008.664461998024</v>
+        <v>397.5257449324035</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1">
-        <v>44606</v>
+        <v>44651</v>
       </c>
       <c r="B39">
-        <v>901.2868182519147</v>
+        <v>390.6718527783965</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1">
-        <v>44607</v>
+        <v>44652</v>
       </c>
       <c r="B40">
-        <v>839.0306311863516</v>
+        <v>380.9621722268867</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1">
-        <v>44608</v>
+        <v>44653</v>
       </c>
       <c r="B41">
-        <v>759.639713735771</v>
+        <v>380.9621722268867</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1">
-        <v>44609</v>
+        <v>44654</v>
       </c>
       <c r="B42">
-        <v>670.5391157336805</v>
+        <v>378.1063838293838</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1">
-        <v>44610</v>
+        <v>44655</v>
       </c>
       <c r="B43">
-        <v>611.1387170656203</v>
+        <v>366.1120725598716</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1">
-        <v>44611</v>
+        <v>44656</v>
       </c>
       <c r="B44">
-        <v>620.2772399376296</v>
+        <v>361.542811123867</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1">
-        <v>44612</v>
+        <v>44657</v>
       </c>
       <c r="B45">
-        <v>600.2867211551093</v>
+        <v>362.6851264828681</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1">
-        <v>44613</v>
+        <v>44658</v>
       </c>
       <c r="B46">
-        <v>552.8806337565611</v>
+        <v>342.6946077003478</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1">
-        <v>44614</v>
+        <v>44659</v>
       </c>
       <c r="B47">
-        <v>535.7459033715438</v>
+        <v>377.5352261498832</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1">
-        <v>44615</v>
+        <v>44660</v>
       </c>
       <c r="B48">
-        <v>504.3322309990118</v>
+        <v>396.3834295734024</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1">
-        <v>44616</v>
+        <v>44661</v>
       </c>
       <c r="B49">
-        <v>463.2088780749701</v>
+        <v>410.0912138814163</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1">
-        <v>44617</v>
+        <v>44662</v>
       </c>
       <c r="B50">
-        <v>439.7914132154464</v>
+        <v>444.360674651451</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1">
-        <v>44618</v>
+        <v>44663</v>
       </c>
       <c r="B51">
-        <v>430.6528903434371</v>
+        <v>487.7686582934951</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1">
-        <v>44619</v>
+        <v>44664</v>
       </c>
       <c r="B52">
-        <v>419.2297367534255</v>
+        <v>506.0457040375136</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1">
-        <v>44620</v>
+        <v>44665</v>
       </c>
       <c r="B53">
-        <v>423.2278405099296</v>
+        <v>532.8901149740409</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1">
-        <v>44621</v>
+        <v>44666</v>
       </c>
       <c r="B54">
-        <v>404.950794765911</v>
+        <v>556.8787375130653</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1">
-        <v>44622</v>
+        <v>44667</v>
       </c>
       <c r="B55">
-        <v>394.6699565349006</v>
+        <v>578.5827293340873</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1">
-        <v>44623</v>
+        <v>44668</v>
       </c>
       <c r="B56">
-        <v>387.8160643808936</v>
+        <v>612.8521901041221</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1">
-        <v>44624</v>
+        <v>44669</v>
       </c>
       <c r="B57">
-        <v>370.1101763163757</v>
+        <v>671.6814310926818</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1">
-        <v>44625</v>
+        <v>44670</v>
       </c>
       <c r="B58">
-        <v>344.9792384183502</v>
+        <v>708.8066802602194</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1">
-        <v>44626</v>
+        <v>44671</v>
       </c>
       <c r="B59">
-        <v>339.2676616233443</v>
+        <v>761.3531867742728</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1">
-        <v>44627</v>
+        <v>44672</v>
       </c>
       <c r="B60">
-        <v>328.4156657128333</v>
+        <v>823.6093738398359</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1">
-        <v>44628</v>
+        <v>44673</v>
       </c>
       <c r="B61">
-        <v>311.2809353278159</v>
+        <v>859.021149968872</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1">
-        <v>44629</v>
+        <v>44674</v>
       </c>
       <c r="B62">
-        <v>299.8577817378043</v>
+        <v>875.0135649948882</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1">
-        <v>44630</v>
+        <v>44675</v>
       </c>
       <c r="B63">
-        <v>301.5712547763061</v>
+        <v>903.0002912904166</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1">
-        <v>44631</v>
+        <v>44676</v>
       </c>
       <c r="B64">
-        <v>291.8615742247962</v>
+        <v>965.8276360354804</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1">
-        <v>44632</v>
+        <v>44677</v>
       </c>
       <c r="B65">
-        <v>295.8596779813003</v>
+        <v>1012.662565754528</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1">
-        <v>44633</v>
+        <v>44678</v>
       </c>
       <c r="B66">
-        <v>294.1462049427986</v>
+        <v>1081.772644974098</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1">
-        <v>44634</v>
+        <v>44679</v>
       </c>
       <c r="B67">
-        <v>283.2942090322875</v>
+        <v>1143.457674360161</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1">
-        <v>44635</v>
+        <v>44680</v>
       </c>
       <c r="B68">
-        <v>280.4384206347846</v>
+        <v>1207.427334464226</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1">
-        <v>44636</v>
+        <v>44681</v>
       </c>
       <c r="B69">
-        <v>285.5788397502899</v>
+        <v>1238.269849157257</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1">
-        <v>44637</v>
+        <v>44682</v>
       </c>
       <c r="B70">
-        <v>294.7173626222992</v>
+        <v>1246.837214349765</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1">
-        <v>44638</v>
+        <v>44683</v>
       </c>
       <c r="B71">
-        <v>304.427043173809</v>
+        <v>1281.1066751198</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1">
-        <v>44639</v>
+        <v>44684</v>
       </c>
       <c r="B72">
-        <v>303.2847278148078</v>
+        <v>1326.228131800346</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1">
-        <v>44640</v>
+        <v>44685</v>
       </c>
       <c r="B73">
-        <v>307.8539892508124</v>
+        <v>1362.782223288383</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1">
-        <v>44641</v>
+        <v>44686</v>
       </c>
       <c r="B74">
-        <v>332.9849271488379</v>
+        <v>1418.184518199939</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1">
-        <v>44642</v>
+        <v>44687</v>
       </c>
       <c r="B75">
-        <v>346.6927114568519</v>
+        <v>1439.888510020962</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1">
-        <v>44643</v>
+        <v>44688</v>
       </c>
       <c r="B76">
-        <v>358.6870227263641</v>
+        <v>1442.744298418465</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1">
-        <v>44644</v>
+        <v>44689</v>
       </c>
       <c r="B77">
-        <v>374.1082800728797</v>
+        <v>1440.459667700462</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1">
-        <v>44645</v>
+        <v>44690</v>
       </c>
       <c r="B78">
-        <v>379.8198568678855</v>
+        <v>1456.452082726478</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1">
-        <v>44646</v>
+        <v>44691</v>
       </c>
       <c r="B79">
-        <v>374.1082800728797</v>
+        <v>1474.157970790996</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1">
-        <v>44647</v>
+        <v>44692</v>
       </c>
       <c r="B80">
-        <v>374.1082800728797</v>
+        <v>1455.309767367477</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1">
-        <v>44648</v>
+        <v>44693</v>
       </c>
       <c r="B81">
-        <v>395.2411142144012</v>
+        <v>1459.879028803482</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
-        <v>44649</v>
+        <v>44694</v>
       </c>
       <c r="B82">
-        <v>388.3872220603943</v>
+        <v>1441.601983059463</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
-        <v>44650</v>
+        <v>44695</v>
       </c>
       <c r="B83">
-        <v>397.5257449324035</v>
+        <v>1424.467252674446</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1">
-        <v>44651</v>
+        <v>44696</v>
       </c>
       <c r="B84">
-        <v>390.6718527783965</v>
+        <v>1402.763260853424</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1">
-        <v>44652</v>
+        <v>44697</v>
       </c>
       <c r="B85">
-        <v>380.9621722268867</v>
+        <v>1394.767053340416</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
-        <v>44653</v>
+        <v>44698</v>
       </c>
       <c r="B86">
-        <v>380.9621722268867</v>
+        <v>1364.495696326885</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
-        <v>44654</v>
+        <v>44699</v>
       </c>
       <c r="B87">
-        <v>378.1063838293838</v>
+        <v>1319.94539732584</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
-        <v>44655</v>
+        <v>44700</v>
       </c>
       <c r="B88">
-        <v>366.1120725598716</v>
+        <v>1265.114260093784</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
-        <v>44656</v>
+        <v>44701</v>
       </c>
       <c r="B89">
-        <v>361.542811123867</v>
+        <v>1229.131326285247</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
-        <v>44657</v>
+        <v>44702</v>
       </c>
       <c r="B90">
-        <v>362.6851264828681</v>
+        <v>1209.711965182228</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
-        <v>44658</v>
+        <v>44703</v>
       </c>
       <c r="B91">
-        <v>342.6946077003478</v>
+        <v>1195.433023194713</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1">
-        <v>44659</v>
+        <v>44704</v>
       </c>
       <c r="B92">
-        <v>377.5352261498832</v>
+        <v>1117.184421103134</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1">
-        <v>44660</v>
+        <v>44705</v>
       </c>
       <c r="B93">
-        <v>396.3834295734024</v>
+        <v>1065.209072268581</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1">
-        <v>44661</v>
+        <v>44706</v>
       </c>
       <c r="B94">
-        <v>410.0912138814163</v>
+        <v>1015.518354152031</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1">
-        <v>44662</v>
+        <v>44707</v>
       </c>
       <c r="B95">
-        <v>444.360674651451</v>
+        <v>962.4006899584768</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1">
-        <v>44663</v>
+        <v>44708</v>
       </c>
       <c r="B96">
-        <v>487.7686582934951</v>
+        <v>941.8390134964559</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
-        <v>44664</v>
+        <v>44709</v>
       </c>
       <c r="B97">
-        <v>506.0457040375136</v>
+        <v>910.425341123924</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
-        <v>44665</v>
+        <v>44710</v>
       </c>
       <c r="B98">
-        <v>532.8901149740409</v>
+        <v>898.4310298544119</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
-        <v>44666</v>
+        <v>44711</v>
       </c>
       <c r="B99">
-        <v>556.8787375130653</v>
+        <v>849.3114694173621</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
-        <v>44667</v>
+        <v>44712</v>
       </c>
       <c r="B100">
-        <v>578.5827293340873</v>
+        <v>810.4727472113226</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>44668</v>
+        <v>44713</v>
       </c>
       <c r="B101">
-        <v>612.8521901041221</v>
+        <v>773.347498043785</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>44669</v>
+        <v>44714</v>
       </c>
       <c r="B102">
-        <v>671.6814310926818</v>
+        <v>751.643506222763</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
-        <v>44670</v>
+        <v>44715</v>
       </c>
       <c r="B103">
-        <v>708.8066802602194</v>
+        <v>717.3740454527282</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
-        <v>44671</v>
+        <v>44716</v>
       </c>
       <c r="B104">
-        <v>761.3531867742728</v>
+        <v>709.9489956192206</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
-        <v>44672</v>
+        <v>44717</v>
       </c>
       <c r="B105">
-        <v>823.6093738398359</v>
+        <v>692.8142652342032</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
-        <v>44673</v>
+        <v>44718</v>
       </c>
       <c r="B106">
-        <v>859.021149968872</v>
+        <v>664.2563812591742</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
-        <v>44674</v>
+        <v>44719</v>
       </c>
       <c r="B107">
-        <v>875.0135649948882</v>
+        <v>636.8408126431464</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
-        <v>44675</v>
+        <v>44720</v>
       </c>
       <c r="B108">
-        <v>903.0002912904166</v>
+        <v>626.5599744121359</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
-        <v>44676</v>
+        <v>44721</v>
       </c>
       <c r="B109">
-        <v>965.8276360354804</v>
+        <v>604.855982591114</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
-        <v>44677</v>
+        <v>44722</v>
       </c>
       <c r="B110">
-        <v>1012.662565754528</v>
+        <v>571.1576795005798</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
-        <v>44678</v>
+        <v>44723</v>
       </c>
       <c r="B111">
-        <v>1081.772644974098</v>
+        <v>566.5884180645751</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
-        <v>44679</v>
+        <v>44724</v>
       </c>
       <c r="B112">
-        <v>1143.457674360161</v>
+        <v>568.3018911030767</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>44680</v>
+        <v>44725</v>
       </c>
       <c r="B113">
-        <v>1207.427334464226</v>
+        <v>554.0229491155623</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>44681</v>
+        <v>44726</v>
       </c>
       <c r="B114">
-        <v>1238.269849157257</v>
+        <v>560.8768412695692</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>44682</v>
+        <v>44727</v>
       </c>
       <c r="B115">
-        <v>1246.837214349765</v>
+        <v>564.3037873465728</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>44683</v>
+        <v>44728</v>
       </c>
       <c r="B116">
-        <v>1281.1066751198</v>
+        <v>567.7307334235762</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>44684</v>
+        <v>44729</v>
       </c>
       <c r="B117">
-        <v>1326.228131800346</v>
+        <v>568.3018911030767</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>44685</v>
+        <v>44730</v>
       </c>
       <c r="B118">
-        <v>1362.782223288383</v>
+        <v>567.1595757440757</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>44686</v>
+        <v>44731</v>
       </c>
       <c r="B119">
-        <v>1418.184518199939</v>
+        <v>568.8730487825774</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>44687</v>
+        <v>44732</v>
       </c>
       <c r="B120">
-        <v>1439.888510020962</v>
+        <v>570.5865218210791</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>44688</v>
+        <v>44733</v>
       </c>
       <c r="B121">
-        <v>1442.744298418465</v>
+        <v>594.0039866806029</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>44689</v>
+        <v>44734</v>
       </c>
       <c r="B122">
-        <v>1440.459667700462</v>
+        <v>630.55807816864</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>44690</v>
+        <v>44735</v>
       </c>
       <c r="B123">
-        <v>1456.452082726478</v>
+        <v>657.4024891051673</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>44691</v>
+        <v>44736</v>
       </c>
       <c r="B124">
-        <v>1474.157970790996</v>
+        <v>709.9489956192206</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>44692</v>
+        <v>44737</v>
       </c>
       <c r="B125">
-        <v>1455.309767367477</v>
+        <v>749.3588755047606</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>44693</v>
+        <v>44738</v>
       </c>
       <c r="B126">
-        <v>1459.879028803482</v>
+        <v>768.7782366077802</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>44694</v>
+        <v>44739</v>
       </c>
       <c r="B127">
-        <v>1441.601983059463</v>
+        <v>841.315261904354</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>44695</v>
+        <v>44740</v>
       </c>
       <c r="B128">
-        <v>1424.467252674446</v>
+        <v>898.4310298544119</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>44696</v>
+        <v>44741</v>
       </c>
       <c r="B129">
-        <v>1402.763260853424</v>
+        <v>964.6853206764791</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>44697</v>
+        <v>44742</v>
       </c>
       <c r="B130">
-        <v>1394.767053340416</v>
+        <v>1034.937715255051</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>44698</v>
+        <v>44743</v>
       </c>
       <c r="B131">
-        <v>1364.495696326885</v>
+        <v>1122.324840218639</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>44699</v>
+        <v>44744</v>
       </c>
       <c r="B132">
-        <v>1319.94539732584</v>
+        <v>1190.292604079208</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>44700</v>
+        <v>44745</v>
       </c>
       <c r="B133">
-        <v>1265.114260093784</v>
+        <v>1248.550687388267</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>44701</v>
+        <v>44746</v>
       </c>
       <c r="B134">
-        <v>1229.131326285247</v>
+        <v>1397.051684058418</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>44702</v>
+        <v>44747</v>
       </c>
       <c r="B135">
-        <v>1209.711965182228</v>
+        <v>1527.846792664051</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>44703</v>
+        <v>44748</v>
       </c>
       <c r="B136">
-        <v>1195.433023194713</v>
+        <v>1632.368648012657</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>44704</v>
+        <v>44749</v>
       </c>
       <c r="B137">
-        <v>1117.184421103134</v>
+        <v>1716.328826899242</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>44705</v>
+        <v>44750</v>
       </c>
       <c r="B138">
-        <v>1065.209072268581</v>
+        <v>1796.862059708824</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>44706</v>
+        <v>44751</v>
       </c>
       <c r="B139">
-        <v>1015.518354152031</v>
+        <v>1823.135312965851</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>44707</v>
+        <v>44752</v>
       </c>
       <c r="B140">
-        <v>962.4006899584768</v>
+        <v>1856.833616056385</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>44708</v>
+        <v>44753</v>
       </c>
       <c r="B141">
-        <v>941.8390134964559</v>
+        <v>1907.666649531936</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>44709</v>
+        <v>44754</v>
       </c>
       <c r="B142">
-        <v>910.425341123924</v>
+        <v>1936.224533506965</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>44710</v>
+        <v>44755</v>
       </c>
       <c r="B143">
-        <v>898.4310298544119</v>
+        <v>1935.082218147964</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>44711</v>
+        <v>44756</v>
       </c>
       <c r="B144">
-        <v>849.3114694173621</v>
+        <v>1910.522437929439</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>44712</v>
+        <v>44757</v>
       </c>
       <c r="B145">
-        <v>810.4727472113226</v>
+        <v>1847.695093184375</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>44713</v>
+        <v>44758</v>
       </c>
       <c r="B146">
-        <v>773.347498043785</v>
+        <v>1792.292798272819</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>44714</v>
+        <v>44759</v>
       </c>
       <c r="B147">
-        <v>751.643506222763</v>
+        <v>1747.171341592273</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>44715</v>
+        <v>44760</v>
       </c>
       <c r="B148">
-        <v>717.3740454527282</v>
+        <v>1639.793697846164</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>44716</v>
+        <v>44761</v>
       </c>
       <c r="B149">
-        <v>709.9489956192206</v>
+        <v>1503.287012445526</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>44717</v>
+        <v>44762</v>
       </c>
       <c r="B150">
-        <v>692.8142652342032</v>
+        <v>1375.347692237396</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/actualizacion_protocolo/incidencia14.xlsx
+++ b/data/input/actualizacion_protocolo/incidencia14.xlsx
@@ -377,1194 +377,1194 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>44614</v>
+        <v>44657</v>
       </c>
       <c r="B2">
-        <v>535.7459033715438</v>
+        <v>362.6851264828681</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>44615</v>
+        <v>44658</v>
       </c>
       <c r="B3">
-        <v>504.3322309990118</v>
+        <v>342.6946077003478</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>44616</v>
+        <v>44659</v>
       </c>
       <c r="B4">
-        <v>463.2088780749701</v>
+        <v>377.5352261498832</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>44617</v>
+        <v>44660</v>
       </c>
       <c r="B5">
-        <v>439.7914132154464</v>
+        <v>396.3834295734024</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>44618</v>
+        <v>44661</v>
       </c>
       <c r="B6">
-        <v>430.6528903434371</v>
+        <v>410.0912138814163</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>44619</v>
+        <v>44662</v>
       </c>
       <c r="B7">
-        <v>419.2297367534255</v>
+        <v>444.360674651451</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>44620</v>
+        <v>44663</v>
       </c>
       <c r="B8">
-        <v>423.2278405099296</v>
+        <v>487.7686582934951</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>44621</v>
+        <v>44664</v>
       </c>
       <c r="B9">
-        <v>404.950794765911</v>
+        <v>506.0457040375136</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>44622</v>
+        <v>44665</v>
       </c>
       <c r="B10">
-        <v>394.6699565349006</v>
+        <v>532.8901149740409</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
-        <v>44623</v>
+        <v>44666</v>
       </c>
       <c r="B11">
-        <v>387.8160643808936</v>
+        <v>556.8787375130653</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
-        <v>44624</v>
+        <v>44667</v>
       </c>
       <c r="B12">
-        <v>370.1101763163757</v>
+        <v>578.5827293340873</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
-        <v>44625</v>
+        <v>44668</v>
       </c>
       <c r="B13">
-        <v>344.9792384183502</v>
+        <v>612.8521901041221</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
-        <v>44626</v>
+        <v>44669</v>
       </c>
       <c r="B14">
-        <v>339.2676616233443</v>
+        <v>671.6814310926818</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1">
-        <v>44627</v>
+        <v>44670</v>
       </c>
       <c r="B15">
-        <v>328.4156657128333</v>
+        <v>708.8066802602194</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1">
-        <v>44628</v>
+        <v>44671</v>
       </c>
       <c r="B16">
-        <v>311.2809353278159</v>
+        <v>761.3531867742728</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
-        <v>44629</v>
+        <v>44672</v>
       </c>
       <c r="B17">
-        <v>299.8577817378043</v>
+        <v>823.6093738398359</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1">
-        <v>44630</v>
+        <v>44673</v>
       </c>
       <c r="B18">
-        <v>301.5712547763061</v>
+        <v>859.021149968872</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1">
-        <v>44631</v>
+        <v>44674</v>
       </c>
       <c r="B19">
-        <v>291.8615742247962</v>
+        <v>875.0135649948882</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
-        <v>44632</v>
+        <v>44675</v>
       </c>
       <c r="B20">
-        <v>295.8596779813003</v>
+        <v>903.0002912904166</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
-        <v>44633</v>
+        <v>44676</v>
       </c>
       <c r="B21">
-        <v>294.1462049427986</v>
+        <v>965.8276360354804</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1">
-        <v>44634</v>
+        <v>44677</v>
       </c>
       <c r="B22">
-        <v>283.2942090322875</v>
+        <v>1012.662565754528</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1">
-        <v>44635</v>
+        <v>44678</v>
       </c>
       <c r="B23">
-        <v>280.4384206347846</v>
+        <v>1081.772644974098</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1">
-        <v>44636</v>
+        <v>44679</v>
       </c>
       <c r="B24">
-        <v>285.5788397502899</v>
+        <v>1143.457674360161</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1">
-        <v>44637</v>
+        <v>44680</v>
       </c>
       <c r="B25">
-        <v>294.7173626222992</v>
+        <v>1207.427334464226</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1">
-        <v>44638</v>
+        <v>44681</v>
       </c>
       <c r="B26">
-        <v>304.427043173809</v>
+        <v>1238.269849157257</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1">
-        <v>44639</v>
+        <v>44682</v>
       </c>
       <c r="B27">
-        <v>303.2847278148078</v>
+        <v>1246.837214349765</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1">
-        <v>44640</v>
+        <v>44683</v>
       </c>
       <c r="B28">
-        <v>307.8539892508124</v>
+        <v>1281.1066751198</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1">
-        <v>44641</v>
+        <v>44684</v>
       </c>
       <c r="B29">
-        <v>332.9849271488379</v>
+        <v>1326.228131800346</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1">
-        <v>44642</v>
+        <v>44685</v>
       </c>
       <c r="B30">
-        <v>346.6927114568519</v>
+        <v>1362.782223288383</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1">
-        <v>44643</v>
+        <v>44686</v>
       </c>
       <c r="B31">
-        <v>358.6870227263641</v>
+        <v>1418.184518199939</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1">
-        <v>44644</v>
+        <v>44687</v>
       </c>
       <c r="B32">
-        <v>374.1082800728797</v>
+        <v>1439.888510020962</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1">
-        <v>44645</v>
+        <v>44688</v>
       </c>
       <c r="B33">
-        <v>379.8198568678855</v>
+        <v>1442.744298418465</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1">
-        <v>44646</v>
+        <v>44689</v>
       </c>
       <c r="B34">
-        <v>374.1082800728797</v>
+        <v>1440.459667700462</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1">
-        <v>44647</v>
+        <v>44690</v>
       </c>
       <c r="B35">
-        <v>374.1082800728797</v>
+        <v>1456.452082726478</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1">
-        <v>44648</v>
+        <v>44691</v>
       </c>
       <c r="B36">
-        <v>395.2411142144012</v>
+        <v>1474.157970790996</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1">
-        <v>44649</v>
+        <v>44692</v>
       </c>
       <c r="B37">
-        <v>388.3872220603943</v>
+        <v>1455.309767367477</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1">
-        <v>44650</v>
+        <v>44693</v>
       </c>
       <c r="B38">
-        <v>397.5257449324035</v>
+        <v>1459.879028803482</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1">
-        <v>44651</v>
+        <v>44694</v>
       </c>
       <c r="B39">
-        <v>390.6718527783965</v>
+        <v>1441.601983059463</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1">
-        <v>44652</v>
+        <v>44695</v>
       </c>
       <c r="B40">
-        <v>380.9621722268867</v>
+        <v>1424.467252674446</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1">
-        <v>44653</v>
+        <v>44696</v>
       </c>
       <c r="B41">
-        <v>380.9621722268867</v>
+        <v>1402.763260853424</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1">
-        <v>44654</v>
+        <v>44697</v>
       </c>
       <c r="B42">
-        <v>378.1063838293838</v>
+        <v>1394.767053340416</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1">
-        <v>44655</v>
+        <v>44698</v>
       </c>
       <c r="B43">
-        <v>366.1120725598716</v>
+        <v>1364.495696326885</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1">
-        <v>44656</v>
+        <v>44699</v>
       </c>
       <c r="B44">
-        <v>361.542811123867</v>
+        <v>1319.94539732584</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1">
-        <v>44657</v>
+        <v>44700</v>
       </c>
       <c r="B45">
-        <v>362.6851264828681</v>
+        <v>1265.114260093784</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1">
-        <v>44658</v>
+        <v>44701</v>
       </c>
       <c r="B46">
-        <v>342.6946077003478</v>
+        <v>1229.131326285247</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1">
-        <v>44659</v>
+        <v>44702</v>
       </c>
       <c r="B47">
-        <v>377.5352261498832</v>
+        <v>1209.711965182228</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1">
-        <v>44660</v>
+        <v>44703</v>
       </c>
       <c r="B48">
-        <v>396.3834295734024</v>
+        <v>1195.433023194713</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1">
-        <v>44661</v>
+        <v>44704</v>
       </c>
       <c r="B49">
-        <v>410.0912138814163</v>
+        <v>1117.184421103134</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1">
-        <v>44662</v>
+        <v>44705</v>
       </c>
       <c r="B50">
-        <v>444.360674651451</v>
+        <v>1065.209072268581</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1">
-        <v>44663</v>
+        <v>44706</v>
       </c>
       <c r="B51">
-        <v>487.7686582934951</v>
+        <v>1015.518354152031</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1">
-        <v>44664</v>
+        <v>44707</v>
       </c>
       <c r="B52">
-        <v>506.0457040375136</v>
+        <v>962.4006899584768</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1">
-        <v>44665</v>
+        <v>44708</v>
       </c>
       <c r="B53">
-        <v>532.8901149740409</v>
+        <v>941.8390134964559</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1">
-        <v>44666</v>
+        <v>44709</v>
       </c>
       <c r="B54">
-        <v>556.8787375130653</v>
+        <v>910.425341123924</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1">
-        <v>44667</v>
+        <v>44710</v>
       </c>
       <c r="B55">
-        <v>578.5827293340873</v>
+        <v>898.4310298544119</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1">
-        <v>44668</v>
+        <v>44711</v>
       </c>
       <c r="B56">
-        <v>612.8521901041221</v>
+        <v>849.3114694173621</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1">
-        <v>44669</v>
+        <v>44712</v>
       </c>
       <c r="B57">
-        <v>671.6814310926818</v>
+        <v>810.4727472113226</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1">
-        <v>44670</v>
+        <v>44713</v>
       </c>
       <c r="B58">
-        <v>708.8066802602194</v>
+        <v>773.347498043785</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1">
-        <v>44671</v>
+        <v>44714</v>
       </c>
       <c r="B59">
-        <v>761.3531867742728</v>
+        <v>751.643506222763</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1">
-        <v>44672</v>
+        <v>44715</v>
       </c>
       <c r="B60">
-        <v>823.6093738398359</v>
+        <v>717.3740454527282</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1">
-        <v>44673</v>
+        <v>44716</v>
       </c>
       <c r="B61">
-        <v>859.021149968872</v>
+        <v>709.9489956192206</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1">
-        <v>44674</v>
+        <v>44717</v>
       </c>
       <c r="B62">
-        <v>875.0135649948882</v>
+        <v>692.8142652342032</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1">
-        <v>44675</v>
+        <v>44718</v>
       </c>
       <c r="B63">
-        <v>903.0002912904166</v>
+        <v>664.2563812591742</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1">
-        <v>44676</v>
+        <v>44719</v>
       </c>
       <c r="B64">
-        <v>965.8276360354804</v>
+        <v>636.8408126431464</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1">
-        <v>44677</v>
+        <v>44720</v>
       </c>
       <c r="B65">
-        <v>1012.662565754528</v>
+        <v>626.5599744121359</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1">
-        <v>44678</v>
+        <v>44721</v>
       </c>
       <c r="B66">
-        <v>1081.772644974098</v>
+        <v>604.855982591114</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1">
-        <v>44679</v>
+        <v>44722</v>
       </c>
       <c r="B67">
-        <v>1143.457674360161</v>
+        <v>571.1576795005798</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1">
-        <v>44680</v>
+        <v>44723</v>
       </c>
       <c r="B68">
-        <v>1207.427334464226</v>
+        <v>566.5884180645751</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1">
-        <v>44681</v>
+        <v>44724</v>
       </c>
       <c r="B69">
-        <v>1238.269849157257</v>
+        <v>568.3018911030767</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1">
-        <v>44682</v>
+        <v>44725</v>
       </c>
       <c r="B70">
-        <v>1246.837214349765</v>
+        <v>554.0229491155623</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1">
-        <v>44683</v>
+        <v>44726</v>
       </c>
       <c r="B71">
-        <v>1281.1066751198</v>
+        <v>560.8768412695692</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1">
-        <v>44684</v>
+        <v>44727</v>
       </c>
       <c r="B72">
-        <v>1326.228131800346</v>
+        <v>564.3037873465728</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1">
-        <v>44685</v>
+        <v>44728</v>
       </c>
       <c r="B73">
-        <v>1362.782223288383</v>
+        <v>567.7307334235762</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1">
-        <v>44686</v>
+        <v>44729</v>
       </c>
       <c r="B74">
-        <v>1418.184518199939</v>
+        <v>568.3018911030767</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1">
-        <v>44687</v>
+        <v>44730</v>
       </c>
       <c r="B75">
-        <v>1439.888510020962</v>
+        <v>567.1595757440757</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1">
-        <v>44688</v>
+        <v>44731</v>
       </c>
       <c r="B76">
-        <v>1442.744298418465</v>
+        <v>568.8730487825774</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1">
-        <v>44689</v>
+        <v>44732</v>
       </c>
       <c r="B77">
-        <v>1440.459667700462</v>
+        <v>570.5865218210791</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1">
-        <v>44690</v>
+        <v>44733</v>
       </c>
       <c r="B78">
-        <v>1456.452082726478</v>
+        <v>594.0039866806029</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1">
-        <v>44691</v>
+        <v>44734</v>
       </c>
       <c r="B79">
-        <v>1474.157970790996</v>
+        <v>630.55807816864</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1">
-        <v>44692</v>
+        <v>44735</v>
       </c>
       <c r="B80">
-        <v>1455.309767367477</v>
+        <v>657.4024891051673</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1">
-        <v>44693</v>
+        <v>44736</v>
       </c>
       <c r="B81">
-        <v>1459.879028803482</v>
+        <v>709.9489956192206</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
-        <v>44694</v>
+        <v>44737</v>
       </c>
       <c r="B82">
-        <v>1441.601983059463</v>
+        <v>749.3588755047606</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
-        <v>44695</v>
+        <v>44738</v>
       </c>
       <c r="B83">
-        <v>1424.467252674446</v>
+        <v>768.7782366077802</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1">
-        <v>44696</v>
+        <v>44739</v>
       </c>
       <c r="B84">
-        <v>1402.763260853424</v>
+        <v>841.315261904354</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1">
-        <v>44697</v>
+        <v>44740</v>
       </c>
       <c r="B85">
-        <v>1394.767053340416</v>
+        <v>898.4310298544119</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
-        <v>44698</v>
+        <v>44741</v>
       </c>
       <c r="B86">
-        <v>1364.495696326885</v>
+        <v>964.6853206764791</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
-        <v>44699</v>
+        <v>44742</v>
       </c>
       <c r="B87">
-        <v>1319.94539732584</v>
+        <v>1034.937715255051</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
-        <v>44700</v>
+        <v>44743</v>
       </c>
       <c r="B88">
-        <v>1265.114260093784</v>
+        <v>1122.324840218639</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
-        <v>44701</v>
+        <v>44744</v>
       </c>
       <c r="B89">
-        <v>1229.131326285247</v>
+        <v>1190.292604079208</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
-        <v>44702</v>
+        <v>44745</v>
       </c>
       <c r="B90">
-        <v>1209.711965182228</v>
+        <v>1248.550687388267</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
-        <v>44703</v>
+        <v>44746</v>
       </c>
       <c r="B91">
-        <v>1195.433023194713</v>
+        <v>1397.051684058418</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1">
-        <v>44704</v>
+        <v>44747</v>
       </c>
       <c r="B92">
-        <v>1117.184421103134</v>
+        <v>1527.846792664051</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1">
-        <v>44705</v>
+        <v>44748</v>
       </c>
       <c r="B93">
-        <v>1065.209072268581</v>
+        <v>1632.368648012657</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1">
-        <v>44706</v>
+        <v>44749</v>
       </c>
       <c r="B94">
-        <v>1015.518354152031</v>
+        <v>1716.328826899242</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1">
-        <v>44707</v>
+        <v>44750</v>
       </c>
       <c r="B95">
-        <v>962.4006899584768</v>
+        <v>1796.862059708824</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1">
-        <v>44708</v>
+        <v>44751</v>
       </c>
       <c r="B96">
-        <v>941.8390134964559</v>
+        <v>1823.135312965851</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
-        <v>44709</v>
+        <v>44752</v>
       </c>
       <c r="B97">
-        <v>910.425341123924</v>
+        <v>1856.833616056385</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
-        <v>44710</v>
+        <v>44753</v>
       </c>
       <c r="B98">
-        <v>898.4310298544119</v>
+        <v>1907.666649531936</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
-        <v>44711</v>
+        <v>44754</v>
       </c>
       <c r="B99">
-        <v>849.3114694173621</v>
+        <v>1936.224533506965</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
-        <v>44712</v>
+        <v>44755</v>
       </c>
       <c r="B100">
-        <v>810.4727472113226</v>
+        <v>1935.082218147964</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>44713</v>
+        <v>44756</v>
       </c>
       <c r="B101">
-        <v>773.347498043785</v>
+        <v>1910.522437929439</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>44714</v>
+        <v>44757</v>
       </c>
       <c r="B102">
-        <v>751.643506222763</v>
+        <v>1847.695093184375</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
-        <v>44715</v>
+        <v>44758</v>
       </c>
       <c r="B103">
-        <v>717.3740454527282</v>
+        <v>1792.292798272819</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
-        <v>44716</v>
+        <v>44759</v>
       </c>
       <c r="B104">
-        <v>709.9489956192206</v>
+        <v>1747.171341592273</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
-        <v>44717</v>
+        <v>44760</v>
       </c>
       <c r="B105">
-        <v>692.8142652342032</v>
+        <v>1639.793697846164</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
-        <v>44718</v>
+        <v>44761</v>
       </c>
       <c r="B106">
-        <v>664.2563812591742</v>
+        <v>1503.287012445526</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
-        <v>44719</v>
+        <v>44762</v>
       </c>
       <c r="B107">
-        <v>636.8408126431464</v>
+        <v>1375.347692237396</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
-        <v>44720</v>
+        <v>44763</v>
       </c>
       <c r="B108">
-        <v>626.5599744121359</v>
+        <v>1289.102882632808</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
-        <v>44721</v>
+        <v>44764</v>
       </c>
       <c r="B109">
-        <v>604.855982591114</v>
+        <v>1166.303981540184</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
-        <v>44722</v>
+        <v>44765</v>
       </c>
       <c r="B110">
-        <v>571.1576795005798</v>
+        <v>1116.042105744133</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
-        <v>44723</v>
+        <v>44766</v>
       </c>
       <c r="B111">
-        <v>566.5884180645751</v>
+        <v>1065.209072268581</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
-        <v>44724</v>
+        <v>44767</v>
       </c>
       <c r="B112">
-        <v>568.3018911030767</v>
+        <v>929.2735445474432</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>44725</v>
+        <v>44768</v>
       </c>
       <c r="B113">
-        <v>554.0229491155623</v>
+        <v>844.1710503018568</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>44726</v>
+        <v>44769</v>
       </c>
       <c r="B114">
-        <v>560.8768412695692</v>
+        <v>784.7706516337964</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>44727</v>
+        <v>44770</v>
       </c>
       <c r="B115">
-        <v>564.3037873465728</v>
+        <v>691.671949875202</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>44728</v>
+        <v>44771</v>
       </c>
       <c r="B116">
-        <v>567.7307334235762</v>
+        <v>663.6852235796737</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>44729</v>
+        <v>44772</v>
       </c>
       <c r="B117">
-        <v>568.3018911030767</v>
+        <v>641.9812317586516</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>44730</v>
+        <v>44773</v>
       </c>
       <c r="B118">
-        <v>567.1595757440757</v>
+        <v>624.2753436941337</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>44731</v>
+        <v>44774</v>
       </c>
       <c r="B119">
-        <v>568.8730487825774</v>
+        <v>566.0172603850746</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>44732</v>
+        <v>44775</v>
       </c>
       <c r="B120">
-        <v>570.5865218210791</v>
+        <v>541.4574801665495</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>44733</v>
+        <v>44776</v>
       </c>
       <c r="B121">
-        <v>594.0039866806029</v>
+        <v>518.6111729865264</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>44734</v>
+        <v>44777</v>
       </c>
       <c r="B122">
-        <v>630.55807816864</v>
+        <v>483.1993968574905</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>44735</v>
+        <v>44778</v>
       </c>
       <c r="B123">
-        <v>657.4024891051673</v>
+        <v>460.3530896774673</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>44736</v>
+        <v>44779</v>
       </c>
       <c r="B124">
-        <v>709.9489956192206</v>
+        <v>446.6453053694534</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>44737</v>
+        <v>44780</v>
       </c>
       <c r="B125">
-        <v>749.3588755047606</v>
+        <v>434.0798364204406</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>44738</v>
+        <v>44781</v>
       </c>
       <c r="B126">
-        <v>768.7782366077802</v>
+        <v>424.9413135484314</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>44739</v>
+        <v>44782</v>
       </c>
       <c r="B127">
-        <v>841.315261904354</v>
+        <v>401.5238486889076</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>44740</v>
+        <v>44783</v>
       </c>
       <c r="B128">
-        <v>898.4310298544119</v>
+        <v>382.1044875858879</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>44741</v>
+        <v>44784</v>
       </c>
       <c r="B129">
-        <v>964.6853206764791</v>
+        <v>394.0987988554</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>44742</v>
+        <v>44785</v>
       </c>
       <c r="B130">
-        <v>1034.937715255051</v>
+        <v>371.8236493548774</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>44743</v>
+        <v>44786</v>
       </c>
       <c r="B131">
-        <v>1122.324840218639</v>
+        <v>370.1101763163757</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>44744</v>
+        <v>44787</v>
       </c>
       <c r="B132">
-        <v>1190.292604079208</v>
+        <v>365.540914880371</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>44745</v>
+        <v>44788</v>
       </c>
       <c r="B133">
-        <v>1248.550687388267</v>
+        <v>335.8407155463409</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>44746</v>
+        <v>44789</v>
       </c>
       <c r="B134">
-        <v>1397.051684058418</v>
+        <v>318.1348274818229</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>44747</v>
+        <v>44790</v>
       </c>
       <c r="B135">
-        <v>1527.846792664051</v>
+        <v>297.0019933403015</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>44748</v>
+        <v>44791</v>
       </c>
       <c r="B136">
-        <v>1632.368648012657</v>
+        <v>289.0057858272933</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>44749</v>
+        <v>44792</v>
       </c>
       <c r="B137">
-        <v>1716.328826899242</v>
+        <v>283.8653667117881</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>44750</v>
+        <v>44793</v>
       </c>
       <c r="B138">
-        <v>1796.862059708824</v>
+        <v>275.86915919878</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>44751</v>
+        <v>44794</v>
       </c>
       <c r="B139">
-        <v>1823.135312965851</v>
+        <v>275.86915919878</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>44752</v>
+        <v>44795</v>
       </c>
       <c r="B140">
-        <v>1856.833616056385</v>
+        <v>263.3036902497673</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>44753</v>
+        <v>44796</v>
       </c>
       <c r="B141">
-        <v>1907.666649531936</v>
+        <v>248.4535905827522</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>44754</v>
+        <v>44797</v>
       </c>
       <c r="B142">
-        <v>1936.224533506965</v>
+        <v>239.3150677107429</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>44755</v>
+        <v>44798</v>
       </c>
       <c r="B143">
-        <v>1935.082218147964</v>
+        <v>226.7495987617301</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>44756</v>
+        <v>44799</v>
       </c>
       <c r="B144">
-        <v>1910.522437929439</v>
+        <v>215.8976028512191</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>44757</v>
+        <v>44800</v>
       </c>
       <c r="B145">
-        <v>1847.695093184375</v>
+        <v>213.0418144537163</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>44758</v>
+        <v>44801</v>
       </c>
       <c r="B146">
-        <v>1792.292798272819</v>
+        <v>211.8994990947151</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>44759</v>
+        <v>44802</v>
       </c>
       <c r="B147">
-        <v>1747.171341592273</v>
+        <v>219.8957066077232</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>44760</v>
+        <v>44803</v>
       </c>
       <c r="B148">
-        <v>1639.793697846164</v>
+        <v>206.1879222997093</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>44761</v>
+        <v>44804</v>
       </c>
       <c r="B149">
-        <v>1503.287012445526</v>
+        <v>200.4763455047035</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>44762</v>
+        <v>44805</v>
       </c>
       <c r="B150">
-        <v>1375.347692237396</v>
+        <v>191.9089803121948</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/actualizacion_protocolo/incidencia14.xlsx
+++ b/data/input/actualizacion_protocolo/incidencia14.xlsx
@@ -377,1194 +377,1194 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>44657</v>
+        <v>44804</v>
       </c>
       <c r="B2">
-        <v>362.6851264828681</v>
+        <v>200.4763455047035</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>44658</v>
+        <v>44805</v>
       </c>
       <c r="B3">
-        <v>342.6946077003478</v>
+        <v>191.9089803121948</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>44659</v>
+        <v>44806</v>
       </c>
       <c r="B4">
-        <v>377.5352261498832</v>
+        <v>178.2011960041809</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>44660</v>
+        <v>44807</v>
       </c>
       <c r="B5">
-        <v>396.3834295734024</v>
+        <v>173.0607768886757</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>44661</v>
+        <v>44808</v>
       </c>
       <c r="B6">
-        <v>410.0912138814163</v>
+        <v>166.2068847346687</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1">
-        <v>44662</v>
+        <v>44809</v>
       </c>
       <c r="B7">
-        <v>444.360674651451</v>
+        <v>163.3510963371658</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1">
-        <v>44663</v>
+        <v>44810</v>
       </c>
       <c r="B8">
-        <v>487.7686582934951</v>
+        <v>153.0702581061554</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1">
-        <v>44664</v>
+        <v>44811</v>
       </c>
       <c r="B9">
-        <v>506.0457040375136</v>
+        <v>138.7913161186409</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1">
-        <v>44665</v>
+        <v>44812</v>
       </c>
       <c r="B10">
-        <v>532.8901149740409</v>
+        <v>134.7932123621368</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1">
-        <v>44666</v>
+        <v>44813</v>
       </c>
       <c r="B11">
-        <v>556.8787375130653</v>
+        <v>129.6527932466316</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1">
-        <v>44667</v>
+        <v>44814</v>
       </c>
       <c r="B12">
-        <v>578.5827293340873</v>
+        <v>130.2239509261322</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1">
-        <v>44668</v>
+        <v>44815</v>
       </c>
       <c r="B13">
-        <v>612.8521901041221</v>
+        <v>123.9412164516258</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1">
-        <v>44669</v>
+        <v>44816</v>
       </c>
       <c r="B14">
-        <v>671.6814310926818</v>
+        <v>117.6584819771194</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1">
-        <v>44670</v>
+        <v>44817</v>
       </c>
       <c r="B15">
-        <v>708.8066802602194</v>
+        <v>122.2277434131241</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1">
-        <v>44671</v>
+        <v>44818</v>
       </c>
       <c r="B16">
-        <v>761.3531867742728</v>
+        <v>118.8007973361206</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
-        <v>44672</v>
+        <v>44819</v>
       </c>
       <c r="B17">
-        <v>823.6093738398359</v>
+        <v>109.0911167846107</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1">
-        <v>44673</v>
+        <v>44820</v>
       </c>
       <c r="B18">
-        <v>859.021149968872</v>
+        <v>111.9469051821136</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1">
-        <v>44674</v>
+        <v>44821</v>
       </c>
       <c r="B19">
-        <v>875.0135649948882</v>
+        <v>113.0892205411148</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
-        <v>44675</v>
+        <v>44822</v>
       </c>
       <c r="B20">
-        <v>903.0002912904166</v>
+        <v>118.22963965662</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
-        <v>44676</v>
+        <v>44823</v>
       </c>
       <c r="B21">
-        <v>965.8276360354804</v>
+        <v>109.6622744641113</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1">
-        <v>44677</v>
+        <v>44824</v>
       </c>
       <c r="B22">
-        <v>1012.662565754528</v>
+        <v>115.3738512591171</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1">
-        <v>44678</v>
+        <v>44825</v>
       </c>
       <c r="B23">
-        <v>1081.772644974098</v>
+        <v>118.22963965662</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1">
-        <v>44679</v>
+        <v>44826</v>
       </c>
       <c r="B24">
-        <v>1143.457674360161</v>
+        <v>118.22963965662</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1">
-        <v>44680</v>
+        <v>44827</v>
       </c>
       <c r="B25">
-        <v>1207.427334464226</v>
+        <v>123.9412164516258</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1">
-        <v>44681</v>
+        <v>44828</v>
       </c>
       <c r="B26">
-        <v>1238.269849157257</v>
+        <v>122.7989010926246</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1">
-        <v>44682</v>
+        <v>44829</v>
       </c>
       <c r="B27">
-        <v>1246.837214349765</v>
+        <v>126.7970048491287</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1">
-        <v>44683</v>
+        <v>44830</v>
       </c>
       <c r="B28">
-        <v>1281.1066751198</v>
+        <v>134.2220546826362</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1">
-        <v>44684</v>
+        <v>44831</v>
       </c>
       <c r="B29">
-        <v>1326.228131800346</v>
+        <v>137.6490007596397</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1">
-        <v>44685</v>
+        <v>44832</v>
       </c>
       <c r="B30">
-        <v>1362.782223288383</v>
+        <v>145.0740505931473</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1">
-        <v>44686</v>
+        <v>44833</v>
       </c>
       <c r="B31">
-        <v>1418.184518199939</v>
+        <v>159.9241502601623</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1">
-        <v>44687</v>
+        <v>44834</v>
       </c>
       <c r="B32">
-        <v>1439.888510020962</v>
+        <v>167.9203577731705</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1">
-        <v>44688</v>
+        <v>44835</v>
       </c>
       <c r="B33">
-        <v>1442.744298418465</v>
+        <v>173.0607768886757</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1">
-        <v>44689</v>
+        <v>44836</v>
       </c>
       <c r="B34">
-        <v>1440.459667700462</v>
+        <v>171.9184615296745</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1">
-        <v>44690</v>
+        <v>44837</v>
       </c>
       <c r="B35">
-        <v>1456.452082726478</v>
+        <v>180.4858267221832</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1">
-        <v>44691</v>
+        <v>44838</v>
       </c>
       <c r="B36">
-        <v>1474.157970790996</v>
+        <v>187.9108765556907</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1">
-        <v>44692</v>
+        <v>44839</v>
       </c>
       <c r="B37">
-        <v>1455.309767367477</v>
+        <v>192.4801379916954</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1">
-        <v>44693</v>
+        <v>44840</v>
       </c>
       <c r="B38">
-        <v>1459.879028803482</v>
+        <v>198.1917147867012</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1">
-        <v>44694</v>
+        <v>44841</v>
       </c>
       <c r="B39">
-        <v>1441.601983059463</v>
+        <v>206.7590799792099</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1">
-        <v>44695</v>
+        <v>44842</v>
       </c>
       <c r="B40">
-        <v>1424.467252674446</v>
+        <v>207.3302376587104</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1">
-        <v>44696</v>
+        <v>44843</v>
       </c>
       <c r="B41">
-        <v>1402.763260853424</v>
+        <v>212.4706567742157</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1">
-        <v>44697</v>
+        <v>44844</v>
       </c>
       <c r="B42">
-        <v>1394.767053340416</v>
+        <v>222.7514950052261</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1">
-        <v>44698</v>
+        <v>44845</v>
       </c>
       <c r="B43">
-        <v>1364.495696326885</v>
+        <v>237.6015946722412</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1">
-        <v>44699</v>
+        <v>44846</v>
       </c>
       <c r="B44">
-        <v>1319.94539732584</v>
+        <v>230.1765448387336</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1">
-        <v>44700</v>
+        <v>44847</v>
       </c>
       <c r="B45">
-        <v>1265.114260093784</v>
+        <v>229.0342294797325</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1">
-        <v>44701</v>
+        <v>44848</v>
       </c>
       <c r="B46">
-        <v>1229.131326285247</v>
+        <v>227.3207564412307</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1">
-        <v>44702</v>
+        <v>44849</v>
       </c>
       <c r="B47">
-        <v>1209.711965182228</v>
+        <v>229.6053871592331</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1">
-        <v>44703</v>
+        <v>44850</v>
       </c>
       <c r="B48">
-        <v>1195.433023194713</v>
+        <v>233.6034909157371</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1">
-        <v>44704</v>
+        <v>44851</v>
       </c>
       <c r="B49">
-        <v>1117.184421103134</v>
+        <v>233.0323332362365</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1">
-        <v>44705</v>
+        <v>44852</v>
       </c>
       <c r="B50">
-        <v>1065.209072268581</v>
+        <v>231.8900178772354</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1">
-        <v>44706</v>
+        <v>44853</v>
       </c>
       <c r="B51">
-        <v>1015.518354152031</v>
+        <v>230.1765448387336</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1">
-        <v>44707</v>
+        <v>44854</v>
       </c>
       <c r="B52">
-        <v>962.4006899584768</v>
+        <v>238.1727523517418</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1">
-        <v>44708</v>
+        <v>44855</v>
       </c>
       <c r="B53">
-        <v>941.8390134964559</v>
+        <v>229.6053871592331</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1">
-        <v>44709</v>
+        <v>44856</v>
       </c>
       <c r="B54">
-        <v>910.425341123924</v>
+        <v>230.1765448387336</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1">
-        <v>44710</v>
+        <v>44857</v>
       </c>
       <c r="B55">
-        <v>898.4310298544119</v>
+        <v>228.4630718002319</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1">
-        <v>44711</v>
+        <v>44858</v>
       </c>
       <c r="B56">
-        <v>849.3114694173621</v>
+        <v>218.1822335692214</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1">
-        <v>44712</v>
+        <v>44859</v>
       </c>
       <c r="B57">
-        <v>810.4727472113226</v>
+        <v>207.901395338211</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1">
-        <v>44713</v>
+        <v>44860</v>
       </c>
       <c r="B58">
-        <v>773.347498043785</v>
+        <v>217.0399182102203</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1">
-        <v>44714</v>
+        <v>44861</v>
       </c>
       <c r="B59">
-        <v>751.643506222763</v>
+        <v>211.8994990947151</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1">
-        <v>44715</v>
+        <v>44862</v>
       </c>
       <c r="B60">
-        <v>717.3740454527282</v>
+        <v>207.901395338211</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1">
-        <v>44716</v>
+        <v>44863</v>
       </c>
       <c r="B61">
-        <v>709.9489956192206</v>
+        <v>203.3321339022064</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1">
-        <v>44717</v>
+        <v>44864</v>
       </c>
       <c r="B62">
-        <v>692.8142652342032</v>
+        <v>205.0456069407081</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1">
-        <v>44718</v>
+        <v>44865</v>
       </c>
       <c r="B63">
-        <v>664.2563812591742</v>
+        <v>209.0437106972122</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1">
-        <v>44719</v>
+        <v>44866</v>
       </c>
       <c r="B64">
-        <v>636.8408126431464</v>
+        <v>199.3340301457023</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1">
-        <v>44720</v>
+        <v>44867</v>
       </c>
       <c r="B65">
-        <v>626.5599744121359</v>
+        <v>205.6167646202087</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1">
-        <v>44721</v>
+        <v>44868</v>
       </c>
       <c r="B66">
-        <v>604.855982591114</v>
+        <v>193.051295671196</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1">
-        <v>44722</v>
+        <v>44869</v>
       </c>
       <c r="B67">
-        <v>571.1576795005798</v>
+        <v>190.7666649531936</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1">
-        <v>44723</v>
+        <v>44870</v>
       </c>
       <c r="B68">
-        <v>566.5884180645751</v>
+        <v>187.9108765556907</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1">
-        <v>44724</v>
+        <v>44871</v>
       </c>
       <c r="B69">
-        <v>568.3018911030767</v>
+        <v>183.9127727991867</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1">
-        <v>44725</v>
+        <v>44872</v>
       </c>
       <c r="B70">
-        <v>554.0229491155623</v>
+        <v>182.1992997606849</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1">
-        <v>44726</v>
+        <v>44873</v>
       </c>
       <c r="B71">
-        <v>560.8768412695692</v>
+        <v>172.4896192091751</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1">
-        <v>44727</v>
+        <v>44874</v>
       </c>
       <c r="B72">
-        <v>564.3037873465728</v>
+        <v>168.491515452671</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1">
-        <v>44728</v>
+        <v>44875</v>
       </c>
       <c r="B73">
-        <v>567.7307334235762</v>
+        <v>173.6319345681762</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1">
-        <v>44729</v>
+        <v>44876</v>
       </c>
       <c r="B74">
-        <v>568.3018911030767</v>
+        <v>176.4877229656791</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1">
-        <v>44730</v>
+        <v>44877</v>
       </c>
       <c r="B75">
-        <v>567.1595757440757</v>
+        <v>178.2011960041809</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1">
-        <v>44731</v>
+        <v>44878</v>
       </c>
       <c r="B76">
-        <v>568.8730487825774</v>
+        <v>172.4896192091751</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1">
-        <v>44732</v>
+        <v>44879</v>
       </c>
       <c r="B77">
-        <v>570.5865218210791</v>
+        <v>166.7780424141693</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1">
-        <v>44733</v>
+        <v>44880</v>
       </c>
       <c r="B78">
-        <v>594.0039866806029</v>
+        <v>177.0588806451797</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1">
-        <v>44734</v>
+        <v>44881</v>
       </c>
       <c r="B79">
-        <v>630.55807816864</v>
+        <v>178.2011960041809</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1">
-        <v>44735</v>
+        <v>44882</v>
       </c>
       <c r="B80">
-        <v>657.4024891051673</v>
+        <v>187.3397188761901</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1">
-        <v>44736</v>
+        <v>44883</v>
       </c>
       <c r="B81">
-        <v>709.9489956192206</v>
+        <v>189.6243495941925</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
-        <v>44737</v>
+        <v>44884</v>
       </c>
       <c r="B82">
-        <v>749.3588755047606</v>
+        <v>187.9108765556907</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
-        <v>44738</v>
+        <v>44885</v>
       </c>
       <c r="B83">
-        <v>768.7782366077802</v>
+        <v>193.051295671196</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1">
-        <v>44739</v>
+        <v>44886</v>
       </c>
       <c r="B84">
-        <v>841.315261904354</v>
+        <v>195.3359263891982</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1">
-        <v>44740</v>
+        <v>44887</v>
       </c>
       <c r="B85">
-        <v>898.4310298544119</v>
+        <v>199.3340301457023</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
-        <v>44741</v>
+        <v>44888</v>
       </c>
       <c r="B86">
-        <v>964.6853206764791</v>
+        <v>203.3321339022064</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
-        <v>44742</v>
+        <v>44889</v>
       </c>
       <c r="B87">
-        <v>1034.937715255051</v>
+        <v>209.6148683767127</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
-        <v>44743</v>
+        <v>44890</v>
       </c>
       <c r="B88">
-        <v>1122.324840218639</v>
+        <v>210.1860260562134</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
-        <v>44744</v>
+        <v>44891</v>
       </c>
       <c r="B89">
-        <v>1190.292604079208</v>
+        <v>210.757183735714</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
-        <v>44745</v>
+        <v>44892</v>
       </c>
       <c r="B90">
-        <v>1248.550687388267</v>
+        <v>218.1822335692214</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
-        <v>44746</v>
+        <v>44893</v>
       </c>
       <c r="B91">
-        <v>1397.051684058418</v>
+        <v>229.6053871592331</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1">
-        <v>44747</v>
+        <v>44894</v>
       </c>
       <c r="B92">
-        <v>1527.846792664051</v>
+        <v>238.7439100312423</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1">
-        <v>44748</v>
+        <v>44895</v>
       </c>
       <c r="B93">
-        <v>1632.368648012657</v>
+        <v>240.4573830697441</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1">
-        <v>44749</v>
+        <v>44896</v>
       </c>
       <c r="B94">
-        <v>1716.328826899242</v>
+        <v>238.7439100312423</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1">
-        <v>44750</v>
+        <v>44897</v>
       </c>
       <c r="B95">
-        <v>1796.862059708824</v>
+        <v>250.7382213007545</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1">
-        <v>44751</v>
+        <v>44898</v>
       </c>
       <c r="B96">
-        <v>1823.135312965851</v>
+        <v>257.5921134547614</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
-        <v>44752</v>
+        <v>44899</v>
       </c>
       <c r="B97">
-        <v>1856.833616056385</v>
+        <v>257.5921134547614</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
-        <v>44753</v>
+        <v>44900</v>
       </c>
       <c r="B98">
-        <v>1907.666649531936</v>
+        <v>265.017163288269</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
-        <v>44754</v>
+        <v>44901</v>
       </c>
       <c r="B99">
-        <v>1936.224533506965</v>
+        <v>259.8767441727638</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
-        <v>44755</v>
+        <v>44902</v>
       </c>
       <c r="B100">
-        <v>1935.082218147964</v>
+        <v>271.2998977627754</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>44756</v>
+        <v>44903</v>
       </c>
       <c r="B101">
-        <v>1910.522437929439</v>
+        <v>265.5883209677696</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>44757</v>
+        <v>44904</v>
       </c>
       <c r="B102">
-        <v>1847.695093184375</v>
+        <v>277.0114745577811</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
-        <v>44758</v>
+        <v>44905</v>
       </c>
       <c r="B103">
-        <v>1792.292798272819</v>
+        <v>280.4384206347846</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
-        <v>44759</v>
+        <v>44906</v>
       </c>
       <c r="B104">
-        <v>1747.171341592273</v>
+        <v>278.7249475962829</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
-        <v>44760</v>
+        <v>44907</v>
       </c>
       <c r="B105">
-        <v>1639.793697846164</v>
+        <v>287.8634704682922</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
-        <v>44761</v>
+        <v>44908</v>
       </c>
       <c r="B106">
-        <v>1503.287012445526</v>
+        <v>283.2942090322875</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
-        <v>44762</v>
+        <v>44909</v>
       </c>
       <c r="B107">
-        <v>1375.347692237396</v>
+        <v>296.4308356608009</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
-        <v>44763</v>
+        <v>44910</v>
       </c>
       <c r="B108">
-        <v>1289.102882632808</v>
+        <v>295.2885203017997</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
-        <v>44764</v>
+        <v>44911</v>
       </c>
       <c r="B109">
-        <v>1166.303981540184</v>
+        <v>289.5769435067939</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
-        <v>44765</v>
+        <v>44912</v>
       </c>
       <c r="B110">
-        <v>1116.042105744133</v>
+        <v>284.4365243912887</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
-        <v>44766</v>
+        <v>44913</v>
       </c>
       <c r="B111">
-        <v>1065.209072268581</v>
+        <v>283.8653667117881</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
-        <v>44767</v>
+        <v>44914</v>
       </c>
       <c r="B112">
-        <v>929.2735445474432</v>
+        <v>280.4384206347846</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>44768</v>
+        <v>44915</v>
       </c>
       <c r="B113">
-        <v>844.1710503018568</v>
+        <v>293.575047263298</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>44769</v>
+        <v>44916</v>
       </c>
       <c r="B114">
-        <v>784.7706516337964</v>
+        <v>284.4365243912887</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>44770</v>
+        <v>44917</v>
       </c>
       <c r="B115">
-        <v>691.671949875202</v>
+        <v>288.4346281477928</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>44771</v>
+        <v>44918</v>
       </c>
       <c r="B116">
-        <v>663.6852235796737</v>
+        <v>274.7268438397788</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>44772</v>
+        <v>44919</v>
       </c>
       <c r="B117">
-        <v>641.9812317586516</v>
+        <v>269.5864247242736</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>44773</v>
+        <v>44920</v>
       </c>
       <c r="B118">
-        <v>624.2753436941337</v>
+        <v>260.4479018522644</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>44774</v>
+        <v>44921</v>
       </c>
       <c r="B119">
-        <v>566.0172603850746</v>
+        <v>231.3188601977348</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>44775</v>
+        <v>44922</v>
       </c>
       <c r="B120">
-        <v>541.4574801665495</v>
+        <v>226.7495987617301</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>44776</v>
+        <v>44923</v>
       </c>
       <c r="B121">
-        <v>518.6111729865264</v>
+        <v>209.6148683767127</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>44777</v>
+        <v>44924</v>
       </c>
       <c r="B122">
-        <v>483.1993968574905</v>
+        <v>207.3302376587104</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>44778</v>
+        <v>44925</v>
       </c>
       <c r="B123">
-        <v>460.3530896774673</v>
+        <v>199.3340301457023</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>44779</v>
+        <v>44926</v>
       </c>
       <c r="B124">
-        <v>446.6453053694534</v>
+        <v>197.0493994277</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>44780</v>
+        <v>44927</v>
       </c>
       <c r="B125">
-        <v>434.0798364204406</v>
+        <v>188.4820342351913</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>44781</v>
+        <v>44928</v>
       </c>
       <c r="B126">
-        <v>424.9413135484314</v>
+        <v>179.343511363182</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>44782</v>
+        <v>44929</v>
       </c>
       <c r="B127">
-        <v>401.5238486889076</v>
+        <v>169.6338308116722</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>44783</v>
+        <v>44930</v>
       </c>
       <c r="B128">
-        <v>382.1044875858879</v>
+        <v>156.4972041831589</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>44784</v>
+        <v>44931</v>
       </c>
       <c r="B129">
-        <v>394.0987988554</v>
+        <v>139.933631477642</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>44785</v>
+        <v>44932</v>
       </c>
       <c r="B130">
-        <v>371.8236493548774</v>
+        <v>127.3681625286293</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>44786</v>
+        <v>44933</v>
       </c>
       <c r="B131">
-        <v>370.1101763163757</v>
+        <v>126.7970048491287</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>44787</v>
+        <v>44934</v>
       </c>
       <c r="B132">
-        <v>365.540914880371</v>
+        <v>128.5104778876304</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>44788</v>
+        <v>44935</v>
       </c>
       <c r="B133">
-        <v>335.8407155463409</v>
+        <v>136.5066854006386</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>44789</v>
+        <v>44936</v>
       </c>
       <c r="B134">
-        <v>318.1348274818229</v>
+        <v>122.7989010926246</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>44790</v>
+        <v>44937</v>
       </c>
       <c r="B135">
-        <v>297.0019933403015</v>
+        <v>108.5199591051101</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>44791</v>
+        <v>44938</v>
       </c>
       <c r="B136">
-        <v>289.0057858272933</v>
+        <v>95.95449015609739</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>44792</v>
+        <v>44939</v>
       </c>
       <c r="B137">
-        <v>283.8653667117881</v>
+        <v>85.67365192508696</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>44793</v>
+        <v>44940</v>
       </c>
       <c r="B138">
-        <v>275.86915919878</v>
+        <v>83.38902120708464</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>44794</v>
+        <v>44941</v>
       </c>
       <c r="B139">
-        <v>275.86915919878</v>
+        <v>88.52944032258985</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>44795</v>
+        <v>44942</v>
       </c>
       <c r="B140">
-        <v>263.3036902497673</v>
+        <v>79.96207513008116</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>44796</v>
+        <v>44943</v>
       </c>
       <c r="B141">
-        <v>248.4535905827522</v>
+        <v>73.1081829760742</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>44797</v>
+        <v>44944</v>
       </c>
       <c r="B142">
-        <v>239.3150677107429</v>
+        <v>71.39470993757247</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>44798</v>
+        <v>44945</v>
       </c>
       <c r="B143">
-        <v>226.7495987617301</v>
+        <v>70.82355225807189</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>44799</v>
+        <v>44946</v>
       </c>
       <c r="B144">
-        <v>215.8976028512191</v>
+        <v>70.2523945785713</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>44800</v>
+        <v>44947</v>
       </c>
       <c r="B145">
-        <v>213.0418144537163</v>
+        <v>63.96966010406494</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>44801</v>
+        <v>44948</v>
       </c>
       <c r="B146">
-        <v>211.8994990947151</v>
+        <v>61.11387170656204</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>44802</v>
+        <v>44949</v>
       </c>
       <c r="B147">
-        <v>219.8957066077232</v>
+        <v>47.9772450780487</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>44803</v>
+        <v>44950</v>
       </c>
       <c r="B148">
-        <v>206.1879222997093</v>
+        <v>43.97914132154464</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>44804</v>
+        <v>44951</v>
       </c>
       <c r="B149">
-        <v>200.4763455047035</v>
+        <v>40.55219524454116</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>44805</v>
+        <v>44952</v>
       </c>
       <c r="B150">
-        <v>191.9089803121948</v>
+        <v>38.26756452653884</v>
       </c>
     </row>
   </sheetData>
